--- a/Datos/Precio_Bolsa_Nacional_($kwh)_2014.xlsx
+++ b/Datos/Precio_Bolsa_Nacional_($kwh)_2014.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20365"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82661FA9-8EBF-4243-8708-E22A85B5F131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4711CA-3C3A-4D69-9FF7-01DAD0D6B388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="135" windowWidth="16140" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Precio_Bolsa_Nacional_($kwh).rd" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1212,7 +1223,7 @@
     <numFmt numFmtId="165" formatCode="[$-10409]#,##0;\-#,##0"/>
     <numFmt numFmtId="166" formatCode="[$-10409]#,##0.000;\-#,##0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1222,19 +1233,19 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1447,7 +1458,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1769,18 +1780,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA372"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="G270" sqref="G270"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="25" width="11.28515625" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="27" max="27" width="57.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="25" width="11.33203125" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" customWidth="1"/>
+    <col min="27" max="27" width="57.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:27" ht="15">
+    <row r="1" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -1810,7 +1823,7 @@
       <c r="Y2" s="11"/>
       <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="1:27" ht="15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="13.5">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1969,12 +1982,9 @@
       <c r="Z4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="6">
-        <f>AVERAGE(B4:Y4)</f>
-        <v>148.38003599999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="13.5">
+      <c r="AA4" s="6"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2053,12 +2063,9 @@
       <c r="Z5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="6">
-        <f t="shared" ref="AA5:AA68" si="0">AVERAGE(B5:Y5)</f>
-        <v>148.83819066666675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="13.5">
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2137,12 +2144,9 @@
       <c r="Z6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="6">
-        <f t="shared" si="0"/>
-        <v>165.14382399999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="13.5">
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2221,12 +2225,9 @@
       <c r="Z7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA7" s="6">
-        <f t="shared" si="0"/>
-        <v>158.02802666666665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="13.5">
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2305,12 +2306,9 @@
       <c r="Z8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="6">
-        <f t="shared" si="0"/>
-        <v>170.04258966666671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="13.5">
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2389,12 +2387,9 @@
       <c r="Z9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" s="6">
-        <f t="shared" si="0"/>
-        <v>186.56615399999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="13.5">
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2473,12 +2468,9 @@
       <c r="Z10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="6">
-        <f t="shared" si="0"/>
-        <v>171.34560400000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="13.5">
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -2557,12 +2549,9 @@
       <c r="Z11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="6">
-        <f t="shared" si="0"/>
-        <v>164.43264199999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="13.5">
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2641,12 +2630,9 @@
       <c r="Z12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="6">
-        <f t="shared" si="0"/>
-        <v>161.12289033333334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="13.5">
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2725,12 +2711,9 @@
       <c r="Z13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA13" s="6">
-        <f t="shared" si="0"/>
-        <v>160.71428366666663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="13.5">
+      <c r="AA13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -2809,12 +2792,9 @@
       <c r="Z14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA14" s="6">
-        <f t="shared" si="0"/>
-        <v>139.26653433333334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="13.5">
+      <c r="AA14" s="6"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -2893,12 +2873,9 @@
       <c r="Z15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA15" s="6">
-        <f t="shared" si="0"/>
-        <v>112.19183600000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="13.5">
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -2977,12 +2954,9 @@
       <c r="Z16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA16" s="6">
-        <f t="shared" si="0"/>
-        <v>156.68600466666663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="13.5">
+      <c r="AA16" s="6"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -3061,12 +3035,9 @@
       <c r="Z17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA17" s="6">
-        <f t="shared" si="0"/>
-        <v>150.26214433333334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="13.5">
+      <c r="AA17" s="6"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -3145,12 +3116,9 @@
       <c r="Z18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA18" s="6">
-        <f t="shared" si="0"/>
-        <v>149.88137133333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="13.5">
+      <c r="AA18" s="6"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -3229,12 +3197,9 @@
       <c r="Z19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA19" s="6">
-        <f t="shared" si="0"/>
-        <v>148.72032566666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="13.5">
+      <c r="AA19" s="6"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -3313,12 +3278,9 @@
       <c r="Z20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA20" s="6">
-        <f t="shared" si="0"/>
-        <v>153.33629866666661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="13.5">
+      <c r="AA20" s="6"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -3397,12 +3359,9 @@
       <c r="Z21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="0"/>
-        <v>159.89197699999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="13.5">
+      <c r="AA21" s="6"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -3481,12 +3440,9 @@
       <c r="Z22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA22" s="6">
-        <f t="shared" si="0"/>
-        <v>159.15172366666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="13.5">
+      <c r="AA22" s="6"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -3565,12 +3521,9 @@
       <c r="Z23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA23" s="6">
-        <f t="shared" si="0"/>
-        <v>166.71041833333337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="13.5">
+      <c r="AA23" s="6"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -3649,12 +3602,9 @@
       <c r="Z24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA24" s="6">
-        <f t="shared" si="0"/>
-        <v>157.76116500000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="13.5">
+      <c r="AA24" s="6"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -3733,12 +3683,9 @@
       <c r="Z25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA25" s="6">
-        <f t="shared" si="0"/>
-        <v>159.10240666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="13.5">
+      <c r="AA25" s="6"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -3817,12 +3764,9 @@
       <c r="Z26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA26" s="6">
-        <f t="shared" si="0"/>
-        <v>162.5823873333334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="13.5">
+      <c r="AA26" s="6"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -3901,12 +3845,9 @@
       <c r="Z27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA27" s="6">
-        <f t="shared" si="0"/>
-        <v>159.73000033333335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="13.5">
+      <c r="AA27" s="6"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -3985,12 +3926,9 @@
       <c r="Z28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA28" s="6">
-        <f t="shared" si="0"/>
-        <v>155.73043699999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="13.5">
+      <c r="AA28" s="6"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -4069,12 +4007,9 @@
       <c r="Z29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA29" s="6">
-        <f t="shared" si="0"/>
-        <v>168.27636666666663</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="13.5">
+      <c r="AA29" s="6"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -4153,12 +4088,9 @@
       <c r="Z30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA30" s="6">
-        <f t="shared" si="0"/>
-        <v>166.67639266666677</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="13.5">
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -4237,12 +4169,9 @@
       <c r="Z31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA31" s="6">
-        <f t="shared" si="0"/>
-        <v>169.70304599999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="13.5">
+      <c r="AA31" s="6"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -4321,12 +4250,9 @@
       <c r="Z32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA32" s="6">
-        <f t="shared" si="0"/>
-        <v>179.23702299999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="13.5">
+      <c r="AA32" s="6"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -4405,12 +4331,9 @@
       <c r="Z33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA33" s="6">
-        <f t="shared" si="0"/>
-        <v>175.53386666666663</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="13.5">
+      <c r="AA33" s="6"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -4489,12 +4412,9 @@
       <c r="Z34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA34" s="6">
-        <f t="shared" si="0"/>
-        <v>189.68205566666668</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="13.5">
+      <c r="AA34" s="6"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -4573,12 +4493,9 @@
       <c r="Z35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA35" s="6">
-        <f t="shared" si="0"/>
-        <v>179.58932433333328</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="13.5">
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
@@ -4657,12 +4574,9 @@
       <c r="Z36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA36" s="6">
-        <f t="shared" si="0"/>
-        <v>191.83001199999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="13.5">
+      <c r="AA36" s="6"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
@@ -4741,12 +4655,9 @@
       <c r="Z37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA37" s="6">
-        <f t="shared" si="0"/>
-        <v>192.44026800000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="13.5">
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
@@ -4825,12 +4736,9 @@
       <c r="Z38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA38" s="6">
-        <f t="shared" si="0"/>
-        <v>194.66749733333327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="13.5">
+      <c r="AA38" s="6"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
@@ -4909,12 +4817,9 @@
       <c r="Z39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA39" s="6">
-        <f t="shared" si="0"/>
-        <v>211.52345133333327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="13.5">
+      <c r="AA39" s="6"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>64</v>
       </c>
@@ -4993,12 +4898,9 @@
       <c r="Z40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA40" s="6">
-        <f t="shared" si="0"/>
-        <v>209.03489200000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="13.5">
+      <c r="AA40" s="6"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
@@ -5077,12 +4979,9 @@
       <c r="Z41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA41" s="6">
-        <f t="shared" si="0"/>
-        <v>203.34561733333342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="13.5">
+      <c r="AA41" s="6"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -5161,12 +5060,9 @@
       <c r="Z42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA42" s="6">
-        <f t="shared" si="0"/>
-        <v>201.78303933333328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="13.5">
+      <c r="AA42" s="6"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>67</v>
       </c>
@@ -5245,12 +5141,9 @@
       <c r="Z43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA43" s="6">
-        <f t="shared" si="0"/>
-        <v>190.93429599999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="13.5">
+      <c r="AA43" s="6"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
@@ -5329,12 +5222,9 @@
       <c r="Z44" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA44" s="6">
-        <f t="shared" si="0"/>
-        <v>190.78051633333328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="13.5">
+      <c r="AA44" s="6"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>69</v>
       </c>
@@ -5413,12 +5303,9 @@
       <c r="Z45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA45" s="6">
-        <f t="shared" si="0"/>
-        <v>212.91474066666663</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="13.5">
+      <c r="AA45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>70</v>
       </c>
@@ -5497,12 +5384,9 @@
       <c r="Z46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA46" s="6">
-        <f t="shared" si="0"/>
-        <v>189.2679626666667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="13.5">
+      <c r="AA46" s="6"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -5581,12 +5465,9 @@
       <c r="Z47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA47" s="6">
-        <f t="shared" si="0"/>
-        <v>186.00180833333329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="13.5">
+      <c r="AA47" s="6"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>72</v>
       </c>
@@ -5665,12 +5546,9 @@
       <c r="Z48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA48" s="6">
-        <f t="shared" si="0"/>
-        <v>187.84714466666665</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="13.5">
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>73</v>
       </c>
@@ -5749,12 +5627,9 @@
       <c r="Z49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA49" s="6">
-        <f t="shared" si="0"/>
-        <v>202.35127333333335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="13.5">
+      <c r="AA49" s="6"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
@@ -5833,12 +5708,9 @@
       <c r="Z50" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA50" s="6">
-        <f t="shared" si="0"/>
-        <v>199.50149433333343</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" ht="13.5">
+      <c r="AA50" s="6"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>75</v>
       </c>
@@ -5917,12 +5789,9 @@
       <c r="Z51" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA51" s="6">
-        <f t="shared" si="0"/>
-        <v>194.06727633333333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" ht="13.5">
+      <c r="AA51" s="6"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>76</v>
       </c>
@@ -6001,12 +5870,9 @@
       <c r="Z52" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA52" s="6">
-        <f t="shared" si="0"/>
-        <v>189.79730599999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" ht="13.5">
+      <c r="AA52" s="6"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>77</v>
       </c>
@@ -6085,12 +5951,9 @@
       <c r="Z53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA53" s="6">
-        <f t="shared" si="0"/>
-        <v>184.79109766666673</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" ht="13.5">
+      <c r="AA53" s="6"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>78</v>
       </c>
@@ -6169,12 +6032,9 @@
       <c r="Z54" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA54" s="6">
-        <f t="shared" si="0"/>
-        <v>190.96443533333331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" ht="13.5">
+      <c r="AA54" s="6"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>79</v>
       </c>
@@ -6253,12 +6113,9 @@
       <c r="Z55" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA55" s="6">
-        <f t="shared" si="0"/>
-        <v>172.08409999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" ht="13.5">
+      <c r="AA55" s="6"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>80</v>
       </c>
@@ -6337,12 +6194,9 @@
       <c r="Z56" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA56" s="6">
-        <f t="shared" si="0"/>
-        <v>182.57451866666665</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" ht="13.5">
+      <c r="AA56" s="6"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>81</v>
       </c>
@@ -6421,12 +6275,9 @@
       <c r="Z57" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA57" s="6">
-        <f t="shared" si="0"/>
-        <v>168.74537766666666</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" ht="13.5">
+      <c r="AA57" s="6"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>82</v>
       </c>
@@ -6505,12 +6356,9 @@
       <c r="Z58" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA58" s="6">
-        <f t="shared" si="0"/>
-        <v>165.99456300000003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" ht="13.5">
+      <c r="AA58" s="6"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>83</v>
       </c>
@@ -6589,12 +6437,9 @@
       <c r="Z59" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA59" s="6">
-        <f t="shared" si="0"/>
-        <v>167.88014933333329</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" ht="13.5">
+      <c r="AA59" s="6"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>84</v>
       </c>
@@ -6673,12 +6518,9 @@
       <c r="Z60" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA60" s="6">
-        <f t="shared" si="0"/>
-        <v>177.60279499999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" ht="13.5">
+      <c r="AA60" s="6"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
@@ -6757,12 +6599,9 @@
       <c r="Z61" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA61" s="6">
-        <f t="shared" si="0"/>
-        <v>167.71857099999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" ht="13.5">
+      <c r="AA61" s="6"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>86</v>
       </c>
@@ -6841,12 +6680,9 @@
       <c r="Z62" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA62" s="6">
-        <f t="shared" si="0"/>
-        <v>156.9895333333333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" ht="13.5">
+      <c r="AA62" s="6"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
@@ -6925,12 +6761,9 @@
       <c r="Z63" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA63" s="6">
-        <f t="shared" si="0"/>
-        <v>149.32370033333339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" ht="13.5">
+      <c r="AA63" s="6"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>89</v>
       </c>
@@ -7009,12 +6842,9 @@
       <c r="Z64" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA64" s="6">
-        <f t="shared" si="0"/>
-        <v>144.75253299999994</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" ht="13.5">
+      <c r="AA64" s="6"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>90</v>
       </c>
@@ -7093,12 +6923,9 @@
       <c r="Z65" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA65" s="6">
-        <f t="shared" si="0"/>
-        <v>166.37441533333327</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" ht="13.5">
+      <c r="AA65" s="6"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>91</v>
       </c>
@@ -7177,12 +7004,9 @@
       <c r="Z66" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA66" s="6">
-        <f t="shared" si="0"/>
-        <v>163.32136066666672</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" ht="13.5">
+      <c r="AA66" s="6"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>92</v>
       </c>
@@ -7261,12 +7085,9 @@
       <c r="Z67" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA67" s="6">
-        <f t="shared" si="0"/>
-        <v>159.72435633333336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" ht="13.5">
+      <c r="AA67" s="6"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>93</v>
       </c>
@@ -7345,12 +7166,9 @@
       <c r="Z68" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA68" s="6">
-        <f t="shared" si="0"/>
-        <v>154.96803866666662</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" ht="13.5">
+      <c r="AA68" s="6"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>94</v>
       </c>
@@ -7429,12 +7247,9 @@
       <c r="Z69" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA69" s="6">
-        <f t="shared" ref="AA69:AA132" si="1">AVERAGE(B69:Y69)</f>
-        <v>145.30497166666666</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="13.5">
+      <c r="AA69" s="6"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>95</v>
       </c>
@@ -7513,12 +7328,9 @@
       <c r="Z70" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA70" s="6">
-        <f t="shared" si="1"/>
-        <v>142.84682466666663</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" ht="13.5">
+      <c r="AA70" s="6"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -7597,12 +7409,9 @@
       <c r="Z71" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA71" s="6">
-        <f t="shared" si="1"/>
-        <v>134.88879833333328</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" ht="13.5">
+      <c r="AA71" s="6"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>97</v>
       </c>
@@ -7681,12 +7490,9 @@
       <c r="Z72" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA72" s="6">
-        <f t="shared" si="1"/>
-        <v>135.60735199999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" ht="13.5">
+      <c r="AA72" s="6"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>98</v>
       </c>
@@ -7765,12 +7571,9 @@
       <c r="Z73" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA73" s="6">
-        <f t="shared" si="1"/>
-        <v>161.94616533333334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" ht="13.5">
+      <c r="AA73" s="6"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>99</v>
       </c>
@@ -7849,12 +7652,9 @@
       <c r="Z74" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA74" s="6">
-        <f t="shared" si="1"/>
-        <v>152.55583999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" ht="13.5">
+      <c r="AA74" s="6"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
@@ -7933,12 +7733,9 @@
       <c r="Z75" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA75" s="6">
-        <f t="shared" si="1"/>
-        <v>144.47411733333337</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" ht="13.5">
+      <c r="AA75" s="6"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>101</v>
       </c>
@@ -8017,12 +7814,9 @@
       <c r="Z76" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA76" s="6">
-        <f t="shared" si="1"/>
-        <v>142.39992199999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" ht="13.5">
+      <c r="AA76" s="6"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>102</v>
       </c>
@@ -8101,12 +7895,9 @@
       <c r="Z77" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA77" s="6">
-        <f t="shared" si="1"/>
-        <v>148.9212053333334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" ht="13.5">
+      <c r="AA77" s="6"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>103</v>
       </c>
@@ -8185,12 +7976,9 @@
       <c r="Z78" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA78" s="6">
-        <f t="shared" si="1"/>
-        <v>128.24755966666663</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" ht="13.5">
+      <c r="AA78" s="6"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>104</v>
       </c>
@@ -8269,12 +8057,9 @@
       <c r="Z79" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA79" s="6">
-        <f t="shared" si="1"/>
-        <v>147.76468366666663</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="13.5">
+      <c r="AA79" s="6"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>105</v>
       </c>
@@ -8353,12 +8138,9 @@
       <c r="Z80" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA80" s="6">
-        <f t="shared" si="1"/>
-        <v>138.95181099999996</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" ht="13.5">
+      <c r="AA80" s="6"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>106</v>
       </c>
@@ -8437,12 +8219,9 @@
       <c r="Z81" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA81" s="6">
-        <f t="shared" si="1"/>
-        <v>141.33545799999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" ht="13.5">
+      <c r="AA81" s="6"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
@@ -8521,12 +8300,9 @@
       <c r="Z82" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA82" s="6">
-        <f t="shared" si="1"/>
-        <v>135.28799733333332</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" ht="13.5">
+      <c r="AA82" s="6"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>108</v>
       </c>
@@ -8605,12 +8381,9 @@
       <c r="Z83" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA83" s="6">
-        <f t="shared" si="1"/>
-        <v>159.46937033333333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" ht="13.5">
+      <c r="AA83" s="6"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>109</v>
       </c>
@@ -8689,12 +8462,9 @@
       <c r="Z84" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA84" s="6">
-        <f t="shared" si="1"/>
-        <v>170.32902433333331</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" ht="13.5">
+      <c r="AA84" s="6"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>110</v>
       </c>
@@ -8773,12 +8543,9 @@
       <c r="Z85" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA85" s="6">
-        <f t="shared" si="1"/>
-        <v>179.31779733333335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" ht="13.5">
+      <c r="AA85" s="6"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>111</v>
       </c>
@@ -8857,12 +8624,9 @@
       <c r="Z86" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA86" s="6">
-        <f t="shared" si="1"/>
-        <v>165.81998066666668</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" ht="13.5">
+      <c r="AA86" s="6"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>112</v>
       </c>
@@ -8941,12 +8705,9 @@
       <c r="Z87" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA87" s="6">
-        <f t="shared" si="1"/>
-        <v>165.14070633333333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" ht="13.5">
+      <c r="AA87" s="6"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>113</v>
       </c>
@@ -9025,12 +8786,9 @@
       <c r="Z88" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA88" s="6">
-        <f t="shared" si="1"/>
-        <v>177.42505366666668</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" ht="13.5">
+      <c r="AA88" s="6"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>114</v>
       </c>
@@ -9109,12 +8867,9 @@
       <c r="Z89" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA89" s="6">
-        <f t="shared" si="1"/>
-        <v>155.28395466666666</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" ht="13.5">
+      <c r="AA89" s="6"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>115</v>
       </c>
@@ -9193,12 +8948,9 @@
       <c r="Z90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA90" s="6">
-        <f t="shared" si="1"/>
-        <v>157.30414333333331</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" ht="13.5">
+      <c r="AA90" s="6"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>116</v>
       </c>
@@ -9277,12 +9029,9 @@
       <c r="Z91" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA91" s="6">
-        <f t="shared" si="1"/>
-        <v>138.62150666666662</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" ht="13.5">
+      <c r="AA91" s="6"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>117</v>
       </c>
@@ -9361,12 +9110,9 @@
       <c r="Z92" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA92" s="6">
-        <f t="shared" si="1"/>
-        <v>139.69982433333337</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" ht="13.5">
+      <c r="AA92" s="6"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>118</v>
       </c>
@@ -9445,12 +9191,9 @@
       <c r="Z93" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA93" s="6">
-        <f t="shared" si="1"/>
-        <v>142.98739300000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" ht="13.5">
+      <c r="AA93" s="6"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>119</v>
       </c>
@@ -9529,12 +9272,9 @@
       <c r="Z94" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA94" s="6">
-        <f t="shared" si="1"/>
-        <v>150.90990466666665</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" ht="13.5">
+      <c r="AA94" s="6"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>121</v>
       </c>
@@ -9613,12 +9353,9 @@
       <c r="Z95" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA95" s="6">
-        <f t="shared" si="1"/>
-        <v>183.49645233333331</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" ht="13.5">
+      <c r="AA95" s="6"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>122</v>
       </c>
@@ -9697,12 +9434,9 @@
       <c r="Z96" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA96" s="6">
-        <f t="shared" si="1"/>
-        <v>216.30759799999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27" ht="13.5">
+      <c r="AA96" s="6"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>123</v>
       </c>
@@ -9781,12 +9515,9 @@
       <c r="Z97" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA97" s="6">
-        <f t="shared" si="1"/>
-        <v>285.72610100000014</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" ht="13.5">
+      <c r="AA97" s="6"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>124</v>
       </c>
@@ -9865,12 +9596,9 @@
       <c r="Z98" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA98" s="6">
-        <f t="shared" si="1"/>
-        <v>241.39850600000011</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" ht="13.5">
+      <c r="AA98" s="6"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>125</v>
       </c>
@@ -9949,12 +9677,9 @@
       <c r="Z99" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA99" s="6">
-        <f t="shared" si="1"/>
-        <v>217.64512099999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" ht="13.5">
+      <c r="AA99" s="6"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>126</v>
       </c>
@@ -10033,12 +9758,9 @@
       <c r="Z100" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA100" s="6">
-        <f t="shared" si="1"/>
-        <v>318.5290710000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" ht="13.5">
+      <c r="AA100" s="6"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>127</v>
       </c>
@@ -10117,12 +9839,9 @@
       <c r="Z101" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA101" s="6">
-        <f t="shared" si="1"/>
-        <v>318.61011066666669</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" ht="13.5">
+      <c r="AA101" s="6"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>128</v>
       </c>
@@ -10201,12 +9920,9 @@
       <c r="Z102" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA102" s="6">
-        <f t="shared" si="1"/>
-        <v>334.40986800000002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" ht="13.5">
+      <c r="AA102" s="6"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>129</v>
       </c>
@@ -10285,12 +10001,9 @@
       <c r="Z103" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA103" s="6">
-        <f t="shared" si="1"/>
-        <v>363.24689599999988</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" ht="13.5">
+      <c r="AA103" s="6"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>130</v>
       </c>
@@ -10369,12 +10082,9 @@
       <c r="Z104" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA104" s="6">
-        <f t="shared" si="1"/>
-        <v>334.42546500000009</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" ht="13.5">
+      <c r="AA104" s="6"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>131</v>
       </c>
@@ -10453,12 +10163,9 @@
       <c r="Z105" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA105" s="6">
-        <f t="shared" si="1"/>
-        <v>323.16124300000024</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" ht="13.5">
+      <c r="AA105" s="6"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>132</v>
       </c>
@@ -10537,12 +10244,9 @@
       <c r="Z106" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA106" s="6">
-        <f t="shared" si="1"/>
-        <v>335.77054100000015</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" ht="13.5">
+      <c r="AA106" s="6"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>133</v>
       </c>
@@ -10621,12 +10325,9 @@
       <c r="Z107" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA107" s="6">
-        <f t="shared" si="1"/>
-        <v>355.73467833333342</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27" ht="13.5">
+      <c r="AA107" s="6"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>134</v>
       </c>
@@ -10705,12 +10406,9 @@
       <c r="Z108" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA108" s="6">
-        <f t="shared" si="1"/>
-        <v>401.14053933333349</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27" ht="13.5">
+      <c r="AA108" s="6"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>135</v>
       </c>
@@ -10789,12 +10487,9 @@
       <c r="Z109" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA109" s="6">
-        <f t="shared" si="1"/>
-        <v>425.59149600000018</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27" ht="13.5">
+      <c r="AA109" s="6"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>136</v>
       </c>
@@ -10873,12 +10568,9 @@
       <c r="Z110" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA110" s="6">
-        <f t="shared" si="1"/>
-        <v>459.43827299999981</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27" ht="13.5">
+      <c r="AA110" s="6"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>137</v>
       </c>
@@ -10957,12 +10649,9 @@
       <c r="Z111" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA111" s="6">
-        <f t="shared" si="1"/>
-        <v>450.68323533333336</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" ht="13.5">
+      <c r="AA111" s="6"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>138</v>
       </c>
@@ -11041,12 +10730,9 @@
       <c r="Z112" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA112" s="6">
-        <f t="shared" si="1"/>
-        <v>426.53788600000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" ht="13.5">
+      <c r="AA112" s="6"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>139</v>
       </c>
@@ -11125,12 +10811,9 @@
       <c r="Z113" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA113" s="6">
-        <f t="shared" si="1"/>
-        <v>429.95455266666664</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" ht="13.5">
+      <c r="AA113" s="6"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>140</v>
       </c>
@@ -11209,12 +10892,9 @@
       <c r="Z114" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA114" s="6">
-        <f t="shared" si="1"/>
-        <v>467.0920113333334</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27" ht="13.5">
+      <c r="AA114" s="6"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>141</v>
       </c>
@@ -11293,12 +10973,9 @@
       <c r="Z115" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA115" s="6">
-        <f t="shared" si="1"/>
-        <v>469.04621933333334</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27" ht="13.5">
+      <c r="AA115" s="6"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>142</v>
       </c>
@@ -11377,12 +11054,9 @@
       <c r="Z116" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA116" s="6">
-        <f t="shared" si="1"/>
-        <v>454.16356966666666</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27" ht="13.5">
+      <c r="AA116" s="6"/>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>143</v>
       </c>
@@ -11461,12 +11135,9 @@
       <c r="Z117" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA117" s="6">
-        <f t="shared" si="1"/>
-        <v>471.45816199999996</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" ht="13.5">
+      <c r="AA117" s="6"/>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>144</v>
       </c>
@@ -11545,12 +11216,9 @@
       <c r="Z118" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA118" s="6">
-        <f t="shared" si="1"/>
-        <v>478.87495800000005</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27" ht="13.5">
+      <c r="AA118" s="6"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>145</v>
       </c>
@@ -11629,12 +11297,9 @@
       <c r="Z119" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA119" s="6">
-        <f t="shared" si="1"/>
-        <v>474.90986033333348</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27" ht="13.5">
+      <c r="AA119" s="6"/>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>146</v>
       </c>
@@ -11713,12 +11378,9 @@
       <c r="Z120" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA120" s="6">
-        <f t="shared" si="1"/>
-        <v>459.41724100000005</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27" ht="13.5">
+      <c r="AA120" s="6"/>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>147</v>
       </c>
@@ -11797,12 +11459,9 @@
       <c r="Z121" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA121" s="6">
-        <f t="shared" si="1"/>
-        <v>445.99880266666679</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27" ht="13.5">
+      <c r="AA121" s="6"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>148</v>
       </c>
@@ -11881,12 +11540,9 @@
       <c r="Z122" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA122" s="6">
-        <f t="shared" si="1"/>
-        <v>457.48713600000013</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27" ht="13.5">
+      <c r="AA122" s="6"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>149</v>
       </c>
@@ -11965,12 +11621,9 @@
       <c r="Z123" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA123" s="6">
-        <f t="shared" si="1"/>
-        <v>461.2427889999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27" ht="13.5">
+      <c r="AA123" s="6"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>150</v>
       </c>
@@ -12049,12 +11702,9 @@
       <c r="Z124" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA124" s="6">
-        <f t="shared" si="1"/>
-        <v>410.0950519999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27" ht="13.5">
+      <c r="AA124" s="6"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>151</v>
       </c>
@@ -12133,12 +11783,9 @@
       <c r="Z125" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA125" s="6">
-        <f t="shared" si="1"/>
-        <v>447.59791699999988</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27" ht="13.5">
+      <c r="AA125" s="6"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>152</v>
       </c>
@@ -12217,12 +11864,9 @@
       <c r="Z126" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA126" s="6">
-        <f t="shared" si="1"/>
-        <v>422.74233500000008</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27" ht="13.5">
+      <c r="AA126" s="6"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>153</v>
       </c>
@@ -12301,12 +11945,9 @@
       <c r="Z127" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA127" s="6">
-        <f t="shared" si="1"/>
-        <v>428.58958166666656</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27" ht="13.5">
+      <c r="AA127" s="6"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>154</v>
       </c>
@@ -12385,12 +12026,9 @@
       <c r="Z128" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA128" s="6">
-        <f t="shared" si="1"/>
-        <v>389.27057966666672</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27" ht="13.5">
+      <c r="AA128" s="6"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>155</v>
       </c>
@@ -12469,12 +12107,9 @@
       <c r="Z129" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA129" s="6">
-        <f t="shared" si="1"/>
-        <v>431.2542553333335</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27" ht="13.5">
+      <c r="AA129" s="6"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>156</v>
       </c>
@@ -12553,12 +12188,9 @@
       <c r="Z130" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA130" s="6">
-        <f t="shared" si="1"/>
-        <v>409.39991400000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27" ht="13.5">
+      <c r="AA130" s="6"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>157</v>
       </c>
@@ -12637,12 +12269,9 @@
       <c r="Z131" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA131" s="6">
-        <f t="shared" si="1"/>
-        <v>419.51846399999994</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27" ht="13.5">
+      <c r="AA131" s="6"/>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>158</v>
       </c>
@@ -12721,12 +12350,9 @@
       <c r="Z132" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA132" s="6">
-        <f t="shared" si="1"/>
-        <v>425.76533766666671</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27" ht="13.5">
+      <c r="AA132" s="6"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>159</v>
       </c>
@@ -12805,12 +12431,9 @@
       <c r="Z133" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA133" s="6">
-        <f t="shared" ref="AA133:AA196" si="2">AVERAGE(B133:Y133)</f>
-        <v>453.92906266666654</v>
-      </c>
-    </row>
-    <row r="134" spans="1:27" ht="13.5">
+      <c r="AA133" s="6"/>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>160</v>
       </c>
@@ -12889,12 +12512,9 @@
       <c r="Z134" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA134" s="6">
-        <f t="shared" si="2"/>
-        <v>355.86559933333342</v>
-      </c>
-    </row>
-    <row r="135" spans="1:27" ht="13.5">
+      <c r="AA134" s="6"/>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>161</v>
       </c>
@@ -12973,12 +12593,9 @@
       <c r="Z135" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA135" s="6">
-        <f t="shared" si="2"/>
-        <v>407.88741166666665</v>
-      </c>
-    </row>
-    <row r="136" spans="1:27" ht="13.5">
+      <c r="AA135" s="6"/>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>162</v>
       </c>
@@ -13057,12 +12674,9 @@
       <c r="Z136" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA136" s="6">
-        <f t="shared" si="2"/>
-        <v>326.3946196666667</v>
-      </c>
-    </row>
-    <row r="137" spans="1:27" ht="13.5">
+      <c r="AA136" s="6"/>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>163</v>
       </c>
@@ -13141,12 +12755,9 @@
       <c r="Z137" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA137" s="6">
-        <f t="shared" si="2"/>
-        <v>309.34448133333336</v>
-      </c>
-    </row>
-    <row r="138" spans="1:27" ht="13.5">
+      <c r="AA137" s="6"/>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>164</v>
       </c>
@@ -13225,12 +12836,9 @@
       <c r="Z138" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA138" s="6">
-        <f t="shared" si="2"/>
-        <v>287.22374766666661</v>
-      </c>
-    </row>
-    <row r="139" spans="1:27" ht="13.5">
+      <c r="AA138" s="6"/>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>165</v>
       </c>
@@ -13309,12 +12917,9 @@
       <c r="Z139" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA139" s="6">
-        <f t="shared" si="2"/>
-        <v>339.53645399999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27" ht="13.5">
+      <c r="AA139" s="6"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>166</v>
       </c>
@@ -13393,12 +12998,9 @@
       <c r="Z140" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA140" s="6">
-        <f t="shared" si="2"/>
-        <v>277.55870800000019</v>
-      </c>
-    </row>
-    <row r="141" spans="1:27" ht="13.5">
+      <c r="AA140" s="6"/>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>167</v>
       </c>
@@ -13477,12 +13079,9 @@
       <c r="Z141" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA141" s="6">
-        <f t="shared" si="2"/>
-        <v>258.13616899999994</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27" ht="13.5">
+      <c r="AA141" s="6"/>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>168</v>
       </c>
@@ -13561,12 +13160,9 @@
       <c r="Z142" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA142" s="6">
-        <f t="shared" si="2"/>
-        <v>330.11528133333326</v>
-      </c>
-    </row>
-    <row r="143" spans="1:27" ht="13.5">
+      <c r="AA142" s="6"/>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>169</v>
       </c>
@@ -13645,12 +13241,9 @@
       <c r="Z143" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA143" s="6">
-        <f t="shared" si="2"/>
-        <v>325.35198066666675</v>
-      </c>
-    </row>
-    <row r="144" spans="1:27" ht="13.5">
+      <c r="AA143" s="6"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>170</v>
       </c>
@@ -13729,12 +13322,9 @@
       <c r="Z144" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA144" s="6">
-        <f t="shared" si="2"/>
-        <v>352.86307066666672</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27" ht="13.5">
+      <c r="AA144" s="6"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>171</v>
       </c>
@@ -13813,12 +13403,9 @@
       <c r="Z145" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA145" s="6">
-        <f t="shared" si="2"/>
-        <v>369.24342533333333</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27" ht="13.5">
+      <c r="AA145" s="6"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>172</v>
       </c>
@@ -13897,12 +13484,9 @@
       <c r="Z146" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA146" s="6">
-        <f t="shared" si="2"/>
-        <v>374.88717533333335</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27" ht="13.5">
+      <c r="AA146" s="6"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>173</v>
       </c>
@@ -13981,12 +13565,9 @@
       <c r="Z147" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA147" s="6">
-        <f t="shared" si="2"/>
-        <v>375.27259199999986</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27" ht="13.5">
+      <c r="AA147" s="6"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>174</v>
       </c>
@@ -14065,12 +13646,9 @@
       <c r="Z148" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA148" s="6">
-        <f t="shared" si="2"/>
-        <v>381.18590033333345</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27" ht="13.5">
+      <c r="AA148" s="6"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>175</v>
       </c>
@@ -14149,12 +13727,9 @@
       <c r="Z149" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA149" s="6">
-        <f t="shared" si="2"/>
-        <v>386.16842533333335</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27" ht="13.5">
+      <c r="AA149" s="6"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>176</v>
       </c>
@@ -14233,12 +13808,9 @@
       <c r="Z150" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA150" s="6">
-        <f t="shared" si="2"/>
-        <v>383.40598033333345</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27" ht="13.5">
+      <c r="AA150" s="6"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>177</v>
       </c>
@@ -14317,12 +13889,9 @@
       <c r="Z151" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA151" s="6">
-        <f t="shared" si="2"/>
-        <v>403.17099699999994</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27" ht="13.5">
+      <c r="AA151" s="6"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>178</v>
       </c>
@@ -14401,12 +13970,9 @@
       <c r="Z152" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA152" s="6">
-        <f t="shared" si="2"/>
-        <v>444.32647766666673</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27" ht="13.5">
+      <c r="AA152" s="6"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>179</v>
       </c>
@@ -14485,12 +14051,9 @@
       <c r="Z153" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA153" s="6">
-        <f t="shared" si="2"/>
-        <v>462.67873766666668</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27" ht="13.5">
+      <c r="AA153" s="6"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>180</v>
       </c>
@@ -14569,12 +14132,9 @@
       <c r="Z154" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA154" s="6">
-        <f t="shared" si="2"/>
-        <v>452.56914166666661</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27" ht="13.5">
+      <c r="AA154" s="6"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>181</v>
       </c>
@@ -14653,12 +14213,9 @@
       <c r="Z155" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA155" s="6">
-        <f t="shared" si="2"/>
-        <v>421.5177933333332</v>
-      </c>
-    </row>
-    <row r="156" spans="1:27" ht="13.5">
+      <c r="AA155" s="6"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>182</v>
       </c>
@@ -14737,12 +14294,9 @@
       <c r="Z156" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA156" s="6">
-        <f t="shared" si="2"/>
-        <v>371.18123966666667</v>
-      </c>
-    </row>
-    <row r="157" spans="1:27" ht="13.5">
+      <c r="AA156" s="6"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>183</v>
       </c>
@@ -14821,12 +14375,9 @@
       <c r="Z157" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA157" s="6">
-        <f t="shared" si="2"/>
-        <v>417.60724300000015</v>
-      </c>
-    </row>
-    <row r="158" spans="1:27" ht="13.5">
+      <c r="AA157" s="6"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>184</v>
       </c>
@@ -14905,12 +14456,9 @@
       <c r="Z158" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA158" s="6">
-        <f t="shared" si="2"/>
-        <v>437.13047166666666</v>
-      </c>
-    </row>
-    <row r="159" spans="1:27" ht="13.5">
+      <c r="AA158" s="6"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>185</v>
       </c>
@@ -14989,12 +14537,9 @@
       <c r="Z159" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA159" s="6">
-        <f t="shared" si="2"/>
-        <v>436.95095599999996</v>
-      </c>
-    </row>
-    <row r="160" spans="1:27" ht="13.5">
+      <c r="AA159" s="6"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>186</v>
       </c>
@@ -15073,12 +14618,9 @@
       <c r="Z160" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA160" s="6">
-        <f t="shared" si="2"/>
-        <v>473.16211799999996</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27" ht="13.5">
+      <c r="AA160" s="6"/>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>187</v>
       </c>
@@ -15157,12 +14699,9 @@
       <c r="Z161" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA161" s="6">
-        <f t="shared" si="2"/>
-        <v>473.04076566666669</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27" ht="13.5">
+      <c r="AA161" s="6"/>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>188</v>
       </c>
@@ -15241,12 +14780,9 @@
       <c r="Z162" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA162" s="6">
-        <f t="shared" si="2"/>
-        <v>466.54355733333318</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27" ht="13.5">
+      <c r="AA162" s="6"/>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>189</v>
       </c>
@@ -15325,12 +14861,9 @@
       <c r="Z163" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA163" s="6">
-        <f t="shared" si="2"/>
-        <v>385.21304833333335</v>
-      </c>
-    </row>
-    <row r="164" spans="1:27" ht="13.5">
+      <c r="AA163" s="6"/>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>190</v>
       </c>
@@ -15409,12 +14942,9 @@
       <c r="Z164" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA164" s="6">
-        <f t="shared" si="2"/>
-        <v>364.51335166666667</v>
-      </c>
-    </row>
-    <row r="165" spans="1:27" ht="13.5">
+      <c r="AA164" s="6"/>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>191</v>
       </c>
@@ -15493,12 +15023,9 @@
       <c r="Z165" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA165" s="6">
-        <f t="shared" si="2"/>
-        <v>426.82564233333329</v>
-      </c>
-    </row>
-    <row r="166" spans="1:27" ht="13.5">
+      <c r="AA165" s="6"/>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>192</v>
       </c>
@@ -15577,12 +15104,9 @@
       <c r="Z166" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA166" s="6">
-        <f t="shared" si="2"/>
-        <v>416.227645</v>
-      </c>
-    </row>
-    <row r="167" spans="1:27" ht="13.5">
+      <c r="AA166" s="6"/>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>193</v>
       </c>
@@ -15661,12 +15185,9 @@
       <c r="Z167" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA167" s="6">
-        <f t="shared" si="2"/>
-        <v>396.87933166666653</v>
-      </c>
-    </row>
-    <row r="168" spans="1:27" ht="13.5">
+      <c r="AA167" s="6"/>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>194</v>
       </c>
@@ -15745,12 +15266,9 @@
       <c r="Z168" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA168" s="6">
-        <f t="shared" si="2"/>
-        <v>390.59853599999997</v>
-      </c>
-    </row>
-    <row r="169" spans="1:27" ht="13.5">
+      <c r="AA168" s="6"/>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>195</v>
       </c>
@@ -15829,12 +15347,9 @@
       <c r="Z169" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA169" s="6">
-        <f t="shared" si="2"/>
-        <v>303.64970066666683</v>
-      </c>
-    </row>
-    <row r="170" spans="1:27" ht="13.5">
+      <c r="AA169" s="6"/>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>196</v>
       </c>
@@ -15913,12 +15428,9 @@
       <c r="Z170" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA170" s="6">
-        <f t="shared" si="2"/>
-        <v>328.27516666666662</v>
-      </c>
-    </row>
-    <row r="171" spans="1:27" ht="13.5">
+      <c r="AA170" s="6"/>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>197</v>
       </c>
@@ -15997,12 +15509,9 @@
       <c r="Z171" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA171" s="6">
-        <f t="shared" si="2"/>
-        <v>293.74280333333343</v>
-      </c>
-    </row>
-    <row r="172" spans="1:27" ht="13.5">
+      <c r="AA171" s="6"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>198</v>
       </c>
@@ -16081,12 +15590,9 @@
       <c r="Z172" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA172" s="6">
-        <f t="shared" si="2"/>
-        <v>335.62052733333331</v>
-      </c>
-    </row>
-    <row r="173" spans="1:27" ht="13.5">
+      <c r="AA172" s="6"/>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>199</v>
       </c>
@@ -16165,12 +15671,9 @@
       <c r="Z173" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA173" s="6">
-        <f t="shared" si="2"/>
-        <v>361.88508366666656</v>
-      </c>
-    </row>
-    <row r="174" spans="1:27" ht="13.5">
+      <c r="AA173" s="6"/>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>200</v>
       </c>
@@ -16249,12 +15752,9 @@
       <c r="Z174" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA174" s="6">
-        <f t="shared" si="2"/>
-        <v>371.17492800000014</v>
-      </c>
-    </row>
-    <row r="175" spans="1:27" ht="13.5">
+      <c r="AA174" s="6"/>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>201</v>
       </c>
@@ -16333,12 +15833,9 @@
       <c r="Z175" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA175" s="6">
-        <f t="shared" si="2"/>
-        <v>322.66283600000003</v>
-      </c>
-    </row>
-    <row r="176" spans="1:27" ht="13.5">
+      <c r="AA175" s="6"/>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>202</v>
       </c>
@@ -16417,12 +15914,9 @@
       <c r="Z176" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA176" s="6">
-        <f t="shared" si="2"/>
-        <v>219.84994900000007</v>
-      </c>
-    </row>
-    <row r="177" spans="1:27" ht="13.5">
+      <c r="AA176" s="6"/>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>203</v>
       </c>
@@ -16501,12 +15995,9 @@
       <c r="Z177" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA177" s="6">
-        <f t="shared" si="2"/>
-        <v>225.39938300000006</v>
-      </c>
-    </row>
-    <row r="178" spans="1:27" ht="13.5">
+      <c r="AA177" s="6"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>204</v>
       </c>
@@ -16585,12 +16076,9 @@
       <c r="Z178" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA178" s="6">
-        <f t="shared" si="2"/>
-        <v>355.40202966666675</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27" ht="13.5">
+      <c r="AA178" s="6"/>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>205</v>
       </c>
@@ -16669,12 +16157,9 @@
       <c r="Z179" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA179" s="6">
-        <f t="shared" si="2"/>
-        <v>305.03398499999997</v>
-      </c>
-    </row>
-    <row r="180" spans="1:27" ht="13.5">
+      <c r="AA179" s="6"/>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>206</v>
       </c>
@@ -16753,12 +16238,9 @@
       <c r="Z180" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA180" s="6">
-        <f t="shared" si="2"/>
-        <v>246.55644900000016</v>
-      </c>
-    </row>
-    <row r="181" spans="1:27" ht="13.5">
+      <c r="AA180" s="6"/>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>207</v>
       </c>
@@ -16837,12 +16319,9 @@
       <c r="Z181" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA181" s="6">
-        <f t="shared" si="2"/>
-        <v>125.12607300000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:27" ht="13.5">
+      <c r="AA181" s="6"/>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>208</v>
       </c>
@@ -16921,12 +16400,9 @@
       <c r="Z182" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA182" s="6">
-        <f t="shared" si="2"/>
-        <v>125.50477200000006</v>
-      </c>
-    </row>
-    <row r="183" spans="1:27" ht="13.5">
+      <c r="AA182" s="6"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>209</v>
       </c>
@@ -17005,12 +16481,9 @@
       <c r="Z183" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA183" s="6">
-        <f t="shared" si="2"/>
-        <v>123.85007066666662</v>
-      </c>
-    </row>
-    <row r="184" spans="1:27" ht="13.5">
+      <c r="AA183" s="6"/>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>210</v>
       </c>
@@ -17089,12 +16562,9 @@
       <c r="Z184" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA184" s="6">
-        <f t="shared" si="2"/>
-        <v>125.01936666666666</v>
-      </c>
-    </row>
-    <row r="185" spans="1:27" ht="13.5">
+      <c r="AA184" s="6"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>211</v>
       </c>
@@ -17173,12 +16643,9 @@
       <c r="Z185" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA185" s="6">
-        <f t="shared" si="2"/>
-        <v>188.57788900000006</v>
-      </c>
-    </row>
-    <row r="186" spans="1:27" ht="13.5">
+      <c r="AA185" s="6"/>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>212</v>
       </c>
@@ -17257,12 +16724,9 @@
       <c r="Z186" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA186" s="6">
-        <f t="shared" si="2"/>
-        <v>151.72786033333327</v>
-      </c>
-    </row>
-    <row r="187" spans="1:27" ht="13.5">
+      <c r="AA186" s="6"/>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>213</v>
       </c>
@@ -17341,12 +16805,9 @@
       <c r="Z187" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA187" s="6">
-        <f t="shared" si="2"/>
-        <v>190.80726133333337</v>
-      </c>
-    </row>
-    <row r="188" spans="1:27" ht="13.5">
+      <c r="AA187" s="6"/>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>214</v>
       </c>
@@ -17425,12 +16886,9 @@
       <c r="Z188" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA188" s="6">
-        <f t="shared" si="2"/>
-        <v>159.66981100000007</v>
-      </c>
-    </row>
-    <row r="189" spans="1:27" ht="13.5">
+      <c r="AA188" s="6"/>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>215</v>
       </c>
@@ -17509,12 +16967,9 @@
       <c r="Z189" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA189" s="6">
-        <f t="shared" si="2"/>
-        <v>146.46387433333337</v>
-      </c>
-    </row>
-    <row r="190" spans="1:27" ht="13.5">
+      <c r="AA189" s="6"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>216</v>
       </c>
@@ -17593,12 +17048,9 @@
       <c r="Z190" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA190" s="6">
-        <f t="shared" si="2"/>
-        <v>147.98939900000008</v>
-      </c>
-    </row>
-    <row r="191" spans="1:27" ht="13.5">
+      <c r="AA190" s="6"/>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>217</v>
       </c>
@@ -17677,12 +17129,9 @@
       <c r="Z191" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA191" s="6">
-        <f t="shared" si="2"/>
-        <v>197.51897099999996</v>
-      </c>
-    </row>
-    <row r="192" spans="1:27" ht="13.5">
+      <c r="AA191" s="6"/>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>218</v>
       </c>
@@ -17761,12 +17210,9 @@
       <c r="Z192" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA192" s="6">
-        <f t="shared" si="2"/>
-        <v>270.39976699999994</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27" ht="13.5">
+      <c r="AA192" s="6"/>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>219</v>
       </c>
@@ -17845,12 +17291,9 @@
       <c r="Z193" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA193" s="6">
-        <f t="shared" si="2"/>
-        <v>177.1071896666667</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27" ht="13.5">
+      <c r="AA193" s="6"/>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>220</v>
       </c>
@@ -17929,12 +17372,9 @@
       <c r="Z194" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA194" s="6">
-        <f t="shared" si="2"/>
-        <v>155.9935473333334</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27" ht="13.5">
+      <c r="AA194" s="6"/>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>221</v>
       </c>
@@ -18013,12 +17453,9 @@
       <c r="Z195" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA195" s="6">
-        <f t="shared" si="2"/>
-        <v>148.62689833333334</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27" ht="13.5">
+      <c r="AA195" s="6"/>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>222</v>
       </c>
@@ -18097,12 +17534,9 @@
       <c r="Z196" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA196" s="6">
-        <f t="shared" si="2"/>
-        <v>156.21451166666665</v>
-      </c>
-    </row>
-    <row r="197" spans="1:27" ht="13.5">
+      <c r="AA196" s="6"/>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>223</v>
       </c>
@@ -18181,12 +17615,9 @@
       <c r="Z197" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA197" s="6">
-        <f t="shared" ref="AA197:AA260" si="3">AVERAGE(B197:Y197)</f>
-        <v>152.39014333333338</v>
-      </c>
-    </row>
-    <row r="198" spans="1:27" ht="13.5">
+      <c r="AA197" s="6"/>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>224</v>
       </c>
@@ -18265,12 +17696,9 @@
       <c r="Z198" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA198" s="6">
-        <f t="shared" si="3"/>
-        <v>142.74229433333338</v>
-      </c>
-    </row>
-    <row r="199" spans="1:27" ht="13.5">
+      <c r="AA198" s="6"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>225</v>
       </c>
@@ -18349,12 +17777,9 @@
       <c r="Z199" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA199" s="6">
-        <f t="shared" si="3"/>
-        <v>137.76591833333336</v>
-      </c>
-    </row>
-    <row r="200" spans="1:27" ht="13.5">
+      <c r="AA199" s="6"/>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>226</v>
       </c>
@@ -18433,12 +17858,9 @@
       <c r="Z200" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA200" s="6">
-        <f t="shared" si="3"/>
-        <v>125.68012300000005</v>
-      </c>
-    </row>
-    <row r="201" spans="1:27" ht="13.5">
+      <c r="AA200" s="6"/>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>227</v>
       </c>
@@ -18517,12 +17939,9 @@
       <c r="Z201" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA201" s="6">
-        <f t="shared" si="3"/>
-        <v>123.73791633333333</v>
-      </c>
-    </row>
-    <row r="202" spans="1:27" ht="13.5">
+      <c r="AA201" s="6"/>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>228</v>
       </c>
@@ -18601,12 +18020,9 @@
       <c r="Z202" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA202" s="6">
-        <f t="shared" si="3"/>
-        <v>128.50879499999999</v>
-      </c>
-    </row>
-    <row r="203" spans="1:27" ht="13.5">
+      <c r="AA202" s="6"/>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>229</v>
       </c>
@@ -18685,12 +18101,9 @@
       <c r="Z203" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA203" s="6">
-        <f t="shared" si="3"/>
-        <v>159.88920299999998</v>
-      </c>
-    </row>
-    <row r="204" spans="1:27" ht="13.5">
+      <c r="AA203" s="6"/>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>230</v>
       </c>
@@ -18769,12 +18182,9 @@
       <c r="Z204" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA204" s="6">
-        <f t="shared" si="3"/>
-        <v>147.58873433333329</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27" ht="13.5">
+      <c r="AA204" s="6"/>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>231</v>
       </c>
@@ -18853,12 +18263,9 @@
       <c r="Z205" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA205" s="6">
-        <f t="shared" si="3"/>
-        <v>155.80857899999998</v>
-      </c>
-    </row>
-    <row r="206" spans="1:27" ht="13.5">
+      <c r="AA205" s="6"/>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>232</v>
       </c>
@@ -18937,12 +18344,9 @@
       <c r="Z206" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA206" s="6">
-        <f t="shared" si="3"/>
-        <v>175.34261966666665</v>
-      </c>
-    </row>
-    <row r="207" spans="1:27" ht="13.5">
+      <c r="AA206" s="6"/>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>233</v>
       </c>
@@ -19021,12 +18425,9 @@
       <c r="Z207" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA207" s="6">
-        <f t="shared" si="3"/>
-        <v>187.22564366666674</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27" ht="13.5">
+      <c r="AA207" s="6"/>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>234</v>
       </c>
@@ -19105,12 +18506,9 @@
       <c r="Z208" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA208" s="6">
-        <f t="shared" si="3"/>
-        <v>175.54262866666667</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27" ht="13.5">
+      <c r="AA208" s="6"/>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>235</v>
       </c>
@@ -19189,12 +18587,9 @@
       <c r="Z209" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA209" s="6">
-        <f t="shared" si="3"/>
-        <v>179.85348266666665</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27" ht="13.5">
+      <c r="AA209" s="6"/>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>236</v>
       </c>
@@ -19273,12 +18668,9 @@
       <c r="Z210" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA210" s="6">
-        <f t="shared" si="3"/>
-        <v>167.23109933333333</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27" ht="13.5">
+      <c r="AA210" s="6"/>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>237</v>
       </c>
@@ -19357,12 +18749,9 @@
       <c r="Z211" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA211" s="6">
-        <f t="shared" si="3"/>
-        <v>161.08416366666663</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27" ht="13.5">
+      <c r="AA211" s="6"/>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>238</v>
       </c>
@@ -19441,12 +18830,9 @@
       <c r="Z212" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA212" s="6">
-        <f t="shared" si="3"/>
-        <v>266.28281966666663</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27" ht="13.5">
+      <c r="AA212" s="6"/>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>239</v>
       </c>
@@ -19525,12 +18911,9 @@
       <c r="Z213" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA213" s="6">
-        <f t="shared" si="3"/>
-        <v>322.34184433333343</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27" ht="13.5">
+      <c r="AA213" s="6"/>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>240</v>
       </c>
@@ -19609,12 +18992,9 @@
       <c r="Z214" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA214" s="6">
-        <f t="shared" si="3"/>
-        <v>355.67359833333313</v>
-      </c>
-    </row>
-    <row r="215" spans="1:27" ht="13.5">
+      <c r="AA214" s="6"/>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>241</v>
       </c>
@@ -19693,12 +19073,9 @@
       <c r="Z215" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA215" s="6">
-        <f t="shared" si="3"/>
-        <v>368.97202566666664</v>
-      </c>
-    </row>
-    <row r="216" spans="1:27" ht="13.5">
+      <c r="AA215" s="6"/>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>242</v>
       </c>
@@ -19777,12 +19154,9 @@
       <c r="Z216" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA216" s="6">
-        <f t="shared" si="3"/>
-        <v>364.32500233333343</v>
-      </c>
-    </row>
-    <row r="217" spans="1:27" ht="13.5">
+      <c r="AA216" s="6"/>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>243</v>
       </c>
@@ -19861,12 +19235,9 @@
       <c r="Z217" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA217" s="6">
-        <f t="shared" si="3"/>
-        <v>340.9900516666666</v>
-      </c>
-    </row>
-    <row r="218" spans="1:27" ht="13.5">
+      <c r="AA217" s="6"/>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>244</v>
       </c>
@@ -19945,12 +19316,9 @@
       <c r="Z218" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA218" s="6">
-        <f t="shared" si="3"/>
-        <v>185.00879033333331</v>
-      </c>
-    </row>
-    <row r="219" spans="1:27" ht="13.5">
+      <c r="AA218" s="6"/>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>245</v>
       </c>
@@ -20029,12 +19397,9 @@
       <c r="Z219" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA219" s="6">
-        <f t="shared" si="3"/>
-        <v>283.87808333333322</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27" ht="13.5">
+      <c r="AA219" s="6"/>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>246</v>
       </c>
@@ -20113,12 +19478,9 @@
       <c r="Z220" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA220" s="6">
-        <f t="shared" si="3"/>
-        <v>287.01120233333342</v>
-      </c>
-    </row>
-    <row r="221" spans="1:27" ht="13.5">
+      <c r="AA220" s="6"/>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>247</v>
       </c>
@@ -20197,12 +19559,9 @@
       <c r="Z221" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA221" s="6">
-        <f t="shared" si="3"/>
-        <v>308.18041666666659</v>
-      </c>
-    </row>
-    <row r="222" spans="1:27" ht="13.5">
+      <c r="AA221" s="6"/>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>248</v>
       </c>
@@ -20281,12 +19640,9 @@
       <c r="Z222" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA222" s="6">
-        <f t="shared" si="3"/>
-        <v>257.70395500000006</v>
-      </c>
-    </row>
-    <row r="223" spans="1:27" ht="13.5">
+      <c r="AA222" s="6"/>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>249</v>
       </c>
@@ -20365,12 +19721,9 @@
       <c r="Z223" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA223" s="6">
-        <f t="shared" si="3"/>
-        <v>190.79947799999994</v>
-      </c>
-    </row>
-    <row r="224" spans="1:27" ht="13.5">
+      <c r="AA223" s="6"/>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>250</v>
       </c>
@@ -20449,12 +19802,9 @@
       <c r="Z224" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA224" s="6">
-        <f t="shared" si="3"/>
-        <v>159.54541600000002</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27" ht="13.5">
+      <c r="AA224" s="6"/>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>251</v>
       </c>
@@ -20533,12 +19883,9 @@
       <c r="Z225" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA225" s="6">
-        <f t="shared" si="3"/>
-        <v>148.81652966666664</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27" ht="13.5">
+      <c r="AA225" s="6"/>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>252</v>
       </c>
@@ -20617,12 +19964,9 @@
       <c r="Z226" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA226" s="6">
-        <f t="shared" si="3"/>
-        <v>177.7536896666667</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27" ht="13.5">
+      <c r="AA226" s="6"/>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>253</v>
       </c>
@@ -20701,12 +20045,9 @@
       <c r="Z227" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA227" s="6">
-        <f t="shared" si="3"/>
-        <v>168.98352500000004</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27" ht="13.5">
+      <c r="AA227" s="6"/>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>254</v>
       </c>
@@ -20785,12 +20126,9 @@
       <c r="Z228" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA228" s="6">
-        <f t="shared" si="3"/>
-        <v>151.09408866666664</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27" ht="13.5">
+      <c r="AA228" s="6"/>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>255</v>
       </c>
@@ -20869,12 +20207,9 @@
       <c r="Z229" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA229" s="6">
-        <f t="shared" si="3"/>
-        <v>158.37714800000001</v>
-      </c>
-    </row>
-    <row r="230" spans="1:27" ht="13.5">
+      <c r="AA229" s="6"/>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>256</v>
       </c>
@@ -20953,12 +20288,9 @@
       <c r="Z230" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA230" s="6">
-        <f t="shared" si="3"/>
-        <v>182.58052966666673</v>
-      </c>
-    </row>
-    <row r="231" spans="1:27" ht="13.5">
+      <c r="AA230" s="6"/>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>257</v>
       </c>
@@ -21037,12 +20369,9 @@
       <c r="Z231" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA231" s="6">
-        <f t="shared" si="3"/>
-        <v>171.49443800000006</v>
-      </c>
-    </row>
-    <row r="232" spans="1:27" ht="13.5">
+      <c r="AA231" s="6"/>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>258</v>
       </c>
@@ -21121,12 +20450,9 @@
       <c r="Z232" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA232" s="6">
-        <f t="shared" si="3"/>
-        <v>146.7804526666666</v>
-      </c>
-    </row>
-    <row r="233" spans="1:27" ht="13.5">
+      <c r="AA232" s="6"/>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>259</v>
       </c>
@@ -21205,12 +20531,9 @@
       <c r="Z233" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA233" s="6">
-        <f t="shared" si="3"/>
-        <v>153.97553866666661</v>
-      </c>
-    </row>
-    <row r="234" spans="1:27" ht="13.5">
+      <c r="AA233" s="6"/>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>260</v>
       </c>
@@ -21289,12 +20612,9 @@
       <c r="Z234" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA234" s="6">
-        <f t="shared" si="3"/>
-        <v>195.02608733333338</v>
-      </c>
-    </row>
-    <row r="235" spans="1:27" ht="13.5">
+      <c r="AA234" s="6"/>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>261</v>
       </c>
@@ -21373,12 +20693,9 @@
       <c r="Z235" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA235" s="6">
-        <f t="shared" si="3"/>
-        <v>187.34458200000003</v>
-      </c>
-    </row>
-    <row r="236" spans="1:27" ht="13.5">
+      <c r="AA235" s="6"/>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>262</v>
       </c>
@@ -21457,12 +20774,9 @@
       <c r="Z236" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA236" s="6">
-        <f t="shared" si="3"/>
-        <v>187.16805966666664</v>
-      </c>
-    </row>
-    <row r="237" spans="1:27" ht="13.5">
+      <c r="AA236" s="6"/>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>263</v>
       </c>
@@ -21541,12 +20855,9 @@
       <c r="Z237" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA237" s="6">
-        <f t="shared" si="3"/>
-        <v>172.97917333333331</v>
-      </c>
-    </row>
-    <row r="238" spans="1:27" ht="13.5">
+      <c r="AA237" s="6"/>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>264</v>
       </c>
@@ -21625,12 +20936,9 @@
       <c r="Z238" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA238" s="6">
-        <f t="shared" si="3"/>
-        <v>158.78290066666665</v>
-      </c>
-    </row>
-    <row r="239" spans="1:27" ht="13.5">
+      <c r="AA238" s="6"/>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>265</v>
       </c>
@@ -21709,12 +21017,9 @@
       <c r="Z239" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA239" s="6">
-        <f t="shared" si="3"/>
-        <v>160.48186766666666</v>
-      </c>
-    </row>
-    <row r="240" spans="1:27" ht="13.5">
+      <c r="AA239" s="6"/>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>266</v>
       </c>
@@ -21793,12 +21098,9 @@
       <c r="Z240" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA240" s="6">
-        <f t="shared" si="3"/>
-        <v>169.28188766666668</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27" ht="13.5">
+      <c r="AA240" s="6"/>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>267</v>
       </c>
@@ -21877,12 +21179,9 @@
       <c r="Z241" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA241" s="6">
-        <f t="shared" si="3"/>
-        <v>172.35434599999999</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27" ht="13.5">
+      <c r="AA241" s="6"/>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>268</v>
       </c>
@@ -21961,12 +21260,9 @@
       <c r="Z242" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA242" s="6">
-        <f t="shared" si="3"/>
-        <v>264.89638866666667</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27" ht="13.5">
+      <c r="AA242" s="6"/>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>269</v>
       </c>
@@ -22045,12 +21341,9 @@
       <c r="Z243" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA243" s="6">
-        <f t="shared" si="3"/>
-        <v>213.85796000000002</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27" ht="13.5">
+      <c r="AA243" s="6"/>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>270</v>
       </c>
@@ -22129,12 +21422,9 @@
       <c r="Z244" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA244" s="6">
-        <f t="shared" si="3"/>
-        <v>178.06031233333329</v>
-      </c>
-    </row>
-    <row r="245" spans="1:27" ht="13.5">
+      <c r="AA244" s="6"/>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>271</v>
       </c>
@@ -22213,12 +21503,9 @@
       <c r="Z245" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA245" s="6">
-        <f t="shared" si="3"/>
-        <v>155.17201266666666</v>
-      </c>
-    </row>
-    <row r="246" spans="1:27" ht="13.5">
+      <c r="AA245" s="6"/>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>272</v>
       </c>
@@ -22297,12 +21584,9 @@
       <c r="Z246" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA246" s="6">
-        <f t="shared" si="3"/>
-        <v>152.48171766666661</v>
-      </c>
-    </row>
-    <row r="247" spans="1:27" ht="13.5">
+      <c r="AA246" s="6"/>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>273</v>
       </c>
@@ -22381,12 +21665,9 @@
       <c r="Z247" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA247" s="6">
-        <f t="shared" si="3"/>
-        <v>187.85034133333338</v>
-      </c>
-    </row>
-    <row r="248" spans="1:27" ht="13.5">
+      <c r="AA247" s="6"/>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>274</v>
       </c>
@@ -22465,12 +21746,9 @@
       <c r="Z248" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA248" s="6">
-        <f t="shared" si="3"/>
-        <v>211.79144199999999</v>
-      </c>
-    </row>
-    <row r="249" spans="1:27" ht="13.5">
+      <c r="AA248" s="6"/>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>275</v>
       </c>
@@ -22549,12 +21827,9 @@
       <c r="Z249" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA249" s="6">
-        <f t="shared" si="3"/>
-        <v>276.97900899999996</v>
-      </c>
-    </row>
-    <row r="250" spans="1:27" ht="13.5">
+      <c r="AA249" s="6"/>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>276</v>
       </c>
@@ -22633,12 +21908,9 @@
       <c r="Z250" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA250" s="6">
-        <f t="shared" si="3"/>
-        <v>241.06394699999996</v>
-      </c>
-    </row>
-    <row r="251" spans="1:27" ht="13.5">
+      <c r="AA250" s="6"/>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>277</v>
       </c>
@@ -22717,12 +21989,9 @@
       <c r="Z251" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA251" s="6">
-        <f t="shared" si="3"/>
-        <v>217.22873533333328</v>
-      </c>
-    </row>
-    <row r="252" spans="1:27" ht="13.5">
+      <c r="AA251" s="6"/>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>278</v>
       </c>
@@ -22801,12 +22070,9 @@
       <c r="Z252" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA252" s="6">
-        <f t="shared" si="3"/>
-        <v>179.55636166666667</v>
-      </c>
-    </row>
-    <row r="253" spans="1:27" ht="13.5">
+      <c r="AA252" s="6"/>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>279</v>
       </c>
@@ -22885,12 +22151,9 @@
       <c r="Z253" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA253" s="6">
-        <f t="shared" si="3"/>
-        <v>174.19480600000006</v>
-      </c>
-    </row>
-    <row r="254" spans="1:27" ht="13.5">
+      <c r="AA253" s="6"/>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>280</v>
       </c>
@@ -22969,12 +22232,9 @@
       <c r="Z254" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA254" s="6">
-        <f t="shared" si="3"/>
-        <v>182.48617033333335</v>
-      </c>
-    </row>
-    <row r="255" spans="1:27" ht="13.5">
+      <c r="AA254" s="6"/>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>281</v>
       </c>
@@ -23053,12 +22313,9 @@
       <c r="Z255" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA255" s="6">
-        <f t="shared" si="3"/>
-        <v>185.80920999999998</v>
-      </c>
-    </row>
-    <row r="256" spans="1:27" ht="13.5">
+      <c r="AA255" s="6"/>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>282</v>
       </c>
@@ -23137,12 +22394,9 @@
       <c r="Z256" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA256" s="6">
-        <f t="shared" si="3"/>
-        <v>195.18413966666674</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27" ht="13.5">
+      <c r="AA256" s="6"/>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>283</v>
       </c>
@@ -23221,12 +22475,9 @@
       <c r="Z257" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA257" s="6">
-        <f t="shared" si="3"/>
-        <v>173.35777966666663</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27" ht="13.5">
+      <c r="AA257" s="6"/>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>284</v>
       </c>
@@ -23305,12 +22556,9 @@
       <c r="Z258" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA258" s="6">
-        <f t="shared" si="3"/>
-        <v>166.08602266666668</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27" ht="13.5">
+      <c r="AA258" s="6"/>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>285</v>
       </c>
@@ -23389,12 +22637,9 @@
       <c r="Z259" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA259" s="6">
-        <f t="shared" si="3"/>
-        <v>162.49031000000002</v>
-      </c>
-    </row>
-    <row r="260" spans="1:27" ht="13.5">
+      <c r="AA259" s="6"/>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>286</v>
       </c>
@@ -23473,12 +22718,9 @@
       <c r="Z260" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA260" s="6">
-        <f t="shared" si="3"/>
-        <v>149.43834199999998</v>
-      </c>
-    </row>
-    <row r="261" spans="1:27" ht="13.5">
+      <c r="AA260" s="6"/>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>287</v>
       </c>
@@ -23557,12 +22799,9 @@
       <c r="Z261" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA261" s="6">
-        <f t="shared" ref="AA261:AA324" si="4">AVERAGE(B261:Y261)</f>
-        <v>167.56471866666666</v>
-      </c>
-    </row>
-    <row r="262" spans="1:27" ht="13.5">
+      <c r="AA261" s="6"/>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>288</v>
       </c>
@@ -23641,12 +22880,9 @@
       <c r="Z262" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA262" s="6">
-        <f t="shared" si="4"/>
-        <v>141.6008116666666</v>
-      </c>
-    </row>
-    <row r="263" spans="1:27" ht="13.5">
+      <c r="AA262" s="6"/>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>289</v>
       </c>
@@ -23725,12 +22961,9 @@
       <c r="Z263" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA263" s="6">
-        <f t="shared" si="4"/>
-        <v>153.84466566666671</v>
-      </c>
-    </row>
-    <row r="264" spans="1:27" ht="13.5">
+      <c r="AA263" s="6"/>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>290</v>
       </c>
@@ -23809,12 +23042,9 @@
       <c r="Z264" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA264" s="6">
-        <f t="shared" si="4"/>
-        <v>155.79787400000001</v>
-      </c>
-    </row>
-    <row r="265" spans="1:27" ht="13.5">
+      <c r="AA264" s="6"/>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>291</v>
       </c>
@@ -23893,12 +23123,9 @@
       <c r="Z265" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA265" s="6">
-        <f t="shared" si="4"/>
-        <v>143.5574476666666</v>
-      </c>
-    </row>
-    <row r="266" spans="1:27" ht="13.5">
+      <c r="AA265" s="6"/>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>292</v>
       </c>
@@ -23977,12 +23204,9 @@
       <c r="Z266" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA266" s="6">
-        <f t="shared" si="4"/>
-        <v>138.7816149999999</v>
-      </c>
-    </row>
-    <row r="267" spans="1:27" ht="13.5">
+      <c r="AA266" s="6"/>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>293</v>
       </c>
@@ -24061,12 +23285,9 @@
       <c r="Z267" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA267" s="6">
-        <f t="shared" si="4"/>
-        <v>132.06161000000003</v>
-      </c>
-    </row>
-    <row r="268" spans="1:27" ht="13.5">
+      <c r="AA267" s="6"/>
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>294</v>
       </c>
@@ -24145,12 +23366,9 @@
       <c r="Z268" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA268" s="6">
-        <f t="shared" si="4"/>
-        <v>137.74607200000003</v>
-      </c>
-    </row>
-    <row r="269" spans="1:27" ht="13.5">
+      <c r="AA268" s="6"/>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>295</v>
       </c>
@@ -24229,12 +23447,9 @@
       <c r="Z269" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA269" s="6">
-        <f t="shared" si="4"/>
-        <v>132.41096833333339</v>
-      </c>
-    </row>
-    <row r="270" spans="1:27" ht="13.5">
+      <c r="AA269" s="6"/>
+    </row>
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>296</v>
       </c>
@@ -24313,12 +23528,9 @@
       <c r="Z270" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA270" s="6">
-        <f t="shared" si="4"/>
-        <v>142.14581433333336</v>
-      </c>
-    </row>
-    <row r="271" spans="1:27" ht="13.5">
+      <c r="AA270" s="6"/>
+    </row>
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>297</v>
       </c>
@@ -24397,12 +23609,9 @@
       <c r="Z271" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA271" s="6">
-        <f t="shared" si="4"/>
-        <v>165.67387233333343</v>
-      </c>
-    </row>
-    <row r="272" spans="1:27" ht="13.5">
+      <c r="AA271" s="6"/>
+    </row>
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>298</v>
       </c>
@@ -24481,12 +23690,9 @@
       <c r="Z272" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA272" s="6">
-        <f t="shared" si="4"/>
-        <v>192.51832299999992</v>
-      </c>
-    </row>
-    <row r="273" spans="1:27" ht="13.5">
+      <c r="AA272" s="6"/>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>299</v>
       </c>
@@ -24565,12 +23771,9 @@
       <c r="Z273" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA273" s="6">
-        <f t="shared" si="4"/>
-        <v>200.70428300000003</v>
-      </c>
-    </row>
-    <row r="274" spans="1:27" ht="13.5">
+      <c r="AA273" s="6"/>
+    </row>
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>300</v>
       </c>
@@ -24649,12 +23852,9 @@
       <c r="Z274" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA274" s="6">
-        <f t="shared" si="4"/>
-        <v>200.233428</v>
-      </c>
-    </row>
-    <row r="275" spans="1:27" ht="13.5">
+      <c r="AA274" s="6"/>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>301</v>
       </c>
@@ -24733,12 +23933,9 @@
       <c r="Z275" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA275" s="6">
-        <f t="shared" si="4"/>
-        <v>194.12124233333327</v>
-      </c>
-    </row>
-    <row r="276" spans="1:27" ht="13.5">
+      <c r="AA275" s="6"/>
+    </row>
+    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>302</v>
       </c>
@@ -24817,12 +24014,9 @@
       <c r="Z276" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA276" s="6">
-        <f t="shared" si="4"/>
-        <v>217.27622199999996</v>
-      </c>
-    </row>
-    <row r="277" spans="1:27" ht="13.5">
+      <c r="AA276" s="6"/>
+    </row>
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>303</v>
       </c>
@@ -24901,12 +24095,9 @@
       <c r="Z277" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA277" s="6">
-        <f t="shared" si="4"/>
-        <v>225.66342866666665</v>
-      </c>
-    </row>
-    <row r="278" spans="1:27" ht="13.5">
+      <c r="AA277" s="6"/>
+    </row>
+    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>304</v>
       </c>
@@ -24985,12 +24176,9 @@
       <c r="Z278" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA278" s="6">
-        <f t="shared" si="4"/>
-        <v>246.85347266666676</v>
-      </c>
-    </row>
-    <row r="279" spans="1:27" ht="13.5">
+      <c r="AA278" s="6"/>
+    </row>
+    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>305</v>
       </c>
@@ -25069,12 +24257,9 @@
       <c r="Z279" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA279" s="6">
-        <f t="shared" si="4"/>
-        <v>267.27279000000004</v>
-      </c>
-    </row>
-    <row r="280" spans="1:27" ht="13.5">
+      <c r="AA279" s="6"/>
+    </row>
+    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>306</v>
       </c>
@@ -25153,12 +24338,9 @@
       <c r="Z280" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA280" s="6">
-        <f t="shared" si="4"/>
-        <v>307.61857733333335</v>
-      </c>
-    </row>
-    <row r="281" spans="1:27" ht="13.5">
+      <c r="AA280" s="6"/>
+    </row>
+    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>307</v>
       </c>
@@ -25237,12 +24419,9 @@
       <c r="Z281" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA281" s="6">
-        <f t="shared" si="4"/>
-        <v>295.0569349999999</v>
-      </c>
-    </row>
-    <row r="282" spans="1:27" ht="13.5">
+      <c r="AA281" s="6"/>
+    </row>
+    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>308</v>
       </c>
@@ -25321,12 +24500,9 @@
       <c r="Z282" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA282" s="6">
-        <f t="shared" si="4"/>
-        <v>330.71676300000007</v>
-      </c>
-    </row>
-    <row r="283" spans="1:27" ht="13.5">
+      <c r="AA282" s="6"/>
+    </row>
+    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>309</v>
       </c>
@@ -25405,12 +24581,9 @@
       <c r="Z283" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA283" s="6">
-        <f t="shared" si="4"/>
-        <v>291.75611233333325</v>
-      </c>
-    </row>
-    <row r="284" spans="1:27" ht="13.5">
+      <c r="AA283" s="6"/>
+    </row>
+    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>310</v>
       </c>
@@ -25489,12 +24662,9 @@
       <c r="Z284" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA284" s="6">
-        <f t="shared" si="4"/>
-        <v>261.59661433333332</v>
-      </c>
-    </row>
-    <row r="285" spans="1:27" ht="13.5">
+      <c r="AA284" s="6"/>
+    </row>
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>311</v>
       </c>
@@ -25573,12 +24743,9 @@
       <c r="Z285" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA285" s="6">
-        <f t="shared" si="4"/>
-        <v>187.86119166666666</v>
-      </c>
-    </row>
-    <row r="286" spans="1:27" ht="13.5">
+      <c r="AA285" s="6"/>
+    </row>
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>312</v>
       </c>
@@ -25657,12 +24824,9 @@
       <c r="Z286" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA286" s="6">
-        <f t="shared" si="4"/>
-        <v>177.92081466666659</v>
-      </c>
-    </row>
-    <row r="287" spans="1:27" ht="13.5">
+      <c r="AA286" s="6"/>
+    </row>
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>313</v>
       </c>
@@ -25741,12 +24905,9 @@
       <c r="Z287" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA287" s="6">
-        <f t="shared" si="4"/>
-        <v>159.55424833333336</v>
-      </c>
-    </row>
-    <row r="288" spans="1:27" ht="13.5">
+      <c r="AA287" s="6"/>
+    </row>
+    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>314</v>
       </c>
@@ -25825,12 +24986,9 @@
       <c r="Z288" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA288" s="6">
-        <f t="shared" si="4"/>
-        <v>139.36231966666668</v>
-      </c>
-    </row>
-    <row r="289" spans="1:27" ht="13.5">
+      <c r="AA288" s="6"/>
+    </row>
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>315</v>
       </c>
@@ -25909,12 +25067,9 @@
       <c r="Z289" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA289" s="6">
-        <f t="shared" si="4"/>
-        <v>183.18800933333341</v>
-      </c>
-    </row>
-    <row r="290" spans="1:27" ht="13.5">
+      <c r="AA289" s="6"/>
+    </row>
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>316</v>
       </c>
@@ -25993,12 +25148,9 @@
       <c r="Z290" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA290" s="6">
-        <f t="shared" si="4"/>
-        <v>182.16241300000004</v>
-      </c>
-    </row>
-    <row r="291" spans="1:27" ht="13.5">
+      <c r="AA290" s="6"/>
+    </row>
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>317</v>
       </c>
@@ -26077,12 +25229,9 @@
       <c r="Z291" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA291" s="6">
-        <f t="shared" si="4"/>
-        <v>169.33327166666666</v>
-      </c>
-    </row>
-    <row r="292" spans="1:27" ht="13.5">
+      <c r="AA291" s="6"/>
+    </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>318</v>
       </c>
@@ -26161,12 +25310,9 @@
       <c r="Z292" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA292" s="6">
-        <f t="shared" si="4"/>
-        <v>200.44188700000004</v>
-      </c>
-    </row>
-    <row r="293" spans="1:27" ht="13.5">
+      <c r="AA292" s="6"/>
+    </row>
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>319</v>
       </c>
@@ -26245,12 +25391,9 @@
       <c r="Z293" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA293" s="6">
-        <f t="shared" si="4"/>
-        <v>211.13669199999993</v>
-      </c>
-    </row>
-    <row r="294" spans="1:27" ht="13.5">
+      <c r="AA293" s="6"/>
+    </row>
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>320</v>
       </c>
@@ -26329,12 +25472,9 @@
       <c r="Z294" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA294" s="6">
-        <f t="shared" si="4"/>
-        <v>201.35775333333333</v>
-      </c>
-    </row>
-    <row r="295" spans="1:27" ht="13.5">
+      <c r="AA294" s="6"/>
+    </row>
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>321</v>
       </c>
@@ -26413,12 +25553,9 @@
       <c r="Z295" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA295" s="6">
-        <f t="shared" si="4"/>
-        <v>187.00488166666665</v>
-      </c>
-    </row>
-    <row r="296" spans="1:27" ht="13.5">
+      <c r="AA295" s="6"/>
+    </row>
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>322</v>
       </c>
@@ -26497,12 +25634,9 @@
       <c r="Z296" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA296" s="6">
-        <f t="shared" si="4"/>
-        <v>198.25638133333337</v>
-      </c>
-    </row>
-    <row r="297" spans="1:27" ht="13.5">
+      <c r="AA296" s="6"/>
+    </row>
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>323</v>
       </c>
@@ -26581,12 +25715,9 @@
       <c r="Z297" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA297" s="6">
-        <f t="shared" si="4"/>
-        <v>182.37485133333337</v>
-      </c>
-    </row>
-    <row r="298" spans="1:27" ht="13.5">
+      <c r="AA297" s="6"/>
+    </row>
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>324</v>
       </c>
@@ -26665,12 +25796,9 @@
       <c r="Z298" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA298" s="6">
-        <f t="shared" si="4"/>
-        <v>177.39265666666662</v>
-      </c>
-    </row>
-    <row r="299" spans="1:27" ht="13.5">
+      <c r="AA298" s="6"/>
+    </row>
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>325</v>
       </c>
@@ -26749,12 +25877,9 @@
       <c r="Z299" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA299" s="6">
-        <f t="shared" si="4"/>
-        <v>178.62990200000002</v>
-      </c>
-    </row>
-    <row r="300" spans="1:27" ht="13.5">
+      <c r="AA299" s="6"/>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>326</v>
       </c>
@@ -26833,12 +25958,9 @@
       <c r="Z300" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA300" s="6">
-        <f t="shared" si="4"/>
-        <v>181.16094699999996</v>
-      </c>
-    </row>
-    <row r="301" spans="1:27" ht="13.5">
+      <c r="AA300" s="6"/>
+    </row>
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>327</v>
       </c>
@@ -26917,12 +26039,9 @@
       <c r="Z301" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA301" s="6">
-        <f t="shared" si="4"/>
-        <v>175.3421743333333</v>
-      </c>
-    </row>
-    <row r="302" spans="1:27" ht="13.5">
+      <c r="AA301" s="6"/>
+    </row>
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>328</v>
       </c>
@@ -27001,12 +26120,9 @@
       <c r="Z302" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA302" s="6">
-        <f t="shared" si="4"/>
-        <v>174.21929833333334</v>
-      </c>
-    </row>
-    <row r="303" spans="1:27" ht="13.5">
+      <c r="AA302" s="6"/>
+    </row>
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>329</v>
       </c>
@@ -27085,12 +26201,9 @@
       <c r="Z303" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA303" s="6">
-        <f t="shared" si="4"/>
-        <v>178.11544700000005</v>
-      </c>
-    </row>
-    <row r="304" spans="1:27" ht="13.5">
+      <c r="AA303" s="6"/>
+    </row>
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>330</v>
       </c>
@@ -27169,12 +26282,9 @@
       <c r="Z304" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA304" s="6">
-        <f t="shared" si="4"/>
-        <v>174.72397666666669</v>
-      </c>
-    </row>
-    <row r="305" spans="1:27" ht="13.5">
+      <c r="AA304" s="6"/>
+    </row>
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>331</v>
       </c>
@@ -27253,12 +26363,9 @@
       <c r="Z305" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA305" s="6">
-        <f t="shared" si="4"/>
-        <v>190.95821933333329</v>
-      </c>
-    </row>
-    <row r="306" spans="1:27" ht="13.5">
+      <c r="AA305" s="6"/>
+    </row>
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>332</v>
       </c>
@@ -27337,12 +26444,9 @@
       <c r="Z306" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA306" s="6">
-        <f t="shared" si="4"/>
-        <v>200.71997833333342</v>
-      </c>
-    </row>
-    <row r="307" spans="1:27" ht="13.5">
+      <c r="AA306" s="6"/>
+    </row>
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>333</v>
       </c>
@@ -27421,12 +26525,9 @@
       <c r="Z307" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA307" s="6">
-        <f t="shared" si="4"/>
-        <v>180.06464899999992</v>
-      </c>
-    </row>
-    <row r="308" spans="1:27" ht="13.5">
+      <c r="AA307" s="6"/>
+    </row>
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>334</v>
       </c>
@@ -27505,12 +26606,9 @@
       <c r="Z308" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA308" s="6">
-        <f t="shared" si="4"/>
-        <v>195.06978300000003</v>
-      </c>
-    </row>
-    <row r="309" spans="1:27" ht="13.5">
+      <c r="AA308" s="6"/>
+    </row>
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>335</v>
       </c>
@@ -27589,12 +26687,9 @@
       <c r="Z309" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA309" s="6">
-        <f t="shared" si="4"/>
-        <v>167.62800400000006</v>
-      </c>
-    </row>
-    <row r="310" spans="1:27" ht="13.5">
+      <c r="AA309" s="6"/>
+    </row>
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>336</v>
       </c>
@@ -27673,12 +26768,9 @@
       <c r="Z310" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA310" s="6">
-        <f t="shared" si="4"/>
-        <v>174.20361633333346</v>
-      </c>
-    </row>
-    <row r="311" spans="1:27" ht="13.5">
+      <c r="AA310" s="6"/>
+    </row>
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>337</v>
       </c>
@@ -27757,12 +26849,9 @@
       <c r="Z311" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA311" s="6">
-        <f t="shared" si="4"/>
-        <v>176.27118866666669</v>
-      </c>
-    </row>
-    <row r="312" spans="1:27" ht="13.5">
+      <c r="AA311" s="6"/>
+    </row>
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>338</v>
       </c>
@@ -27841,12 +26930,9 @@
       <c r="Z312" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA312" s="6">
-        <f t="shared" si="4"/>
-        <v>183.48463800000002</v>
-      </c>
-    </row>
-    <row r="313" spans="1:27" ht="13.5">
+      <c r="AA312" s="6"/>
+    </row>
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>339</v>
       </c>
@@ -27925,12 +27011,9 @@
       <c r="Z313" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA313" s="6">
-        <f t="shared" si="4"/>
-        <v>180.43774033333332</v>
-      </c>
-    </row>
-    <row r="314" spans="1:27" ht="13.5">
+      <c r="AA313" s="6"/>
+    </row>
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>340</v>
       </c>
@@ -28009,12 +27092,9 @@
       <c r="Z314" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA314" s="6">
-        <f t="shared" si="4"/>
-        <v>181.330285</v>
-      </c>
-    </row>
-    <row r="315" spans="1:27" ht="13.5">
+      <c r="AA314" s="6"/>
+    </row>
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>341</v>
       </c>
@@ -28093,12 +27173,9 @@
       <c r="Z315" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA315" s="6">
-        <f t="shared" si="4"/>
-        <v>179.49694966666678</v>
-      </c>
-    </row>
-    <row r="316" spans="1:27" ht="13.5">
+      <c r="AA315" s="6"/>
+    </row>
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>342</v>
       </c>
@@ -28177,12 +27254,9 @@
       <c r="Z316" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA316" s="6">
-        <f t="shared" si="4"/>
-        <v>173.6386163333334</v>
-      </c>
-    </row>
-    <row r="317" spans="1:27" ht="13.5">
+      <c r="AA316" s="6"/>
+    </row>
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>343</v>
       </c>
@@ -28261,12 +27335,9 @@
       <c r="Z317" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA317" s="6">
-        <f t="shared" si="4"/>
-        <v>164.52559833333333</v>
-      </c>
-    </row>
-    <row r="318" spans="1:27" ht="13.5">
+      <c r="AA317" s="6"/>
+    </row>
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>344</v>
       </c>
@@ -28345,12 +27416,9 @@
       <c r="Z318" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA318" s="6">
-        <f t="shared" si="4"/>
-        <v>179.02610733333327</v>
-      </c>
-    </row>
-    <row r="319" spans="1:27" ht="13.5">
+      <c r="AA318" s="6"/>
+    </row>
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>345</v>
       </c>
@@ -28429,12 +27497,9 @@
       <c r="Z319" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA319" s="6">
-        <f t="shared" si="4"/>
-        <v>156.93539466666664</v>
-      </c>
-    </row>
-    <row r="320" spans="1:27" ht="13.5">
+      <c r="AA319" s="6"/>
+    </row>
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>346</v>
       </c>
@@ -28513,12 +27578,9 @@
       <c r="Z320" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA320" s="6">
-        <f t="shared" si="4"/>
-        <v>179.65544733333334</v>
-      </c>
-    </row>
-    <row r="321" spans="1:27" ht="13.5">
+      <c r="AA320" s="6"/>
+    </row>
+    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>347</v>
       </c>
@@ -28597,12 +27659,9 @@
       <c r="Z321" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA321" s="6">
-        <f t="shared" si="4"/>
-        <v>153.97608699999998</v>
-      </c>
-    </row>
-    <row r="322" spans="1:27" ht="13.5">
+      <c r="AA321" s="6"/>
+    </row>
+    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>348</v>
       </c>
@@ -28681,12 +27740,9 @@
       <c r="Z322" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA322" s="6">
-        <f t="shared" si="4"/>
-        <v>157.14407833333331</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27" ht="13.5">
+      <c r="AA322" s="6"/>
+    </row>
+    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>349</v>
       </c>
@@ -28765,12 +27821,9 @@
       <c r="Z323" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA323" s="6">
-        <f t="shared" si="4"/>
-        <v>124.26897499999997</v>
-      </c>
-    </row>
-    <row r="324" spans="1:27" ht="13.5">
+      <c r="AA323" s="6"/>
+    </row>
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>350</v>
       </c>
@@ -28849,12 +27902,9 @@
       <c r="Z324" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA324" s="6">
-        <f t="shared" si="4"/>
-        <v>162.51498166666678</v>
-      </c>
-    </row>
-    <row r="325" spans="1:27" ht="13.5">
+      <c r="AA324" s="6"/>
+    </row>
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>351</v>
       </c>
@@ -28933,12 +27983,9 @@
       <c r="Z325" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA325" s="6">
-        <f t="shared" ref="AA325:AA368" si="5">AVERAGE(B325:Y325)</f>
-        <v>164.22366466666662</v>
-      </c>
-    </row>
-    <row r="326" spans="1:27" ht="13.5">
+      <c r="AA325" s="6"/>
+    </row>
+    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>352</v>
       </c>
@@ -29017,12 +28064,9 @@
       <c r="Z326" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA326" s="6">
-        <f t="shared" si="5"/>
-        <v>172.82452200000009</v>
-      </c>
-    </row>
-    <row r="327" spans="1:27" ht="13.5">
+      <c r="AA326" s="6"/>
+    </row>
+    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>353</v>
       </c>
@@ -29101,12 +28145,9 @@
       <c r="Z327" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA327" s="6">
-        <f t="shared" si="5"/>
-        <v>162.33898466666673</v>
-      </c>
-    </row>
-    <row r="328" spans="1:27" ht="13.5">
+      <c r="AA327" s="6"/>
+    </row>
+    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>354</v>
       </c>
@@ -29185,12 +28226,9 @@
       <c r="Z328" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA328" s="6">
-        <f t="shared" si="5"/>
-        <v>167.85672333333335</v>
-      </c>
-    </row>
-    <row r="329" spans="1:27" ht="13.5">
+      <c r="AA328" s="6"/>
+    </row>
+    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>355</v>
       </c>
@@ -29269,12 +28307,9 @@
       <c r="Z329" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA329" s="6">
-        <f t="shared" si="5"/>
-        <v>162.87641233333332</v>
-      </c>
-    </row>
-    <row r="330" spans="1:27" ht="13.5">
+      <c r="AA329" s="6"/>
+    </row>
+    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>356</v>
       </c>
@@ -29353,12 +28388,9 @@
       <c r="Z330" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA330" s="6">
-        <f t="shared" si="5"/>
-        <v>163.475022</v>
-      </c>
-    </row>
-    <row r="331" spans="1:27" ht="13.5">
+      <c r="AA330" s="6"/>
+    </row>
+    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>357</v>
       </c>
@@ -29437,12 +28469,9 @@
       <c r="Z331" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA331" s="6">
-        <f t="shared" si="5"/>
-        <v>164.86193466666666</v>
-      </c>
-    </row>
-    <row r="332" spans="1:27" ht="13.5">
+      <c r="AA331" s="6"/>
+    </row>
+    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>358</v>
       </c>
@@ -29521,12 +28550,9 @@
       <c r="Z332" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA332" s="6">
-        <f t="shared" si="5"/>
-        <v>167.82131466666672</v>
-      </c>
-    </row>
-    <row r="333" spans="1:27" ht="13.5">
+      <c r="AA332" s="6"/>
+    </row>
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>359</v>
       </c>
@@ -29605,12 +28631,9 @@
       <c r="Z333" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA333" s="6">
-        <f t="shared" si="5"/>
-        <v>155.52189866666666</v>
-      </c>
-    </row>
-    <row r="334" spans="1:27" ht="13.5">
+      <c r="AA333" s="6"/>
+    </row>
+    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>360</v>
       </c>
@@ -29689,12 +28712,9 @@
       <c r="Z334" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA334" s="6">
-        <f t="shared" si="5"/>
-        <v>159.08537299999998</v>
-      </c>
-    </row>
-    <row r="335" spans="1:27" ht="13.5">
+      <c r="AA334" s="6"/>
+    </row>
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>361</v>
       </c>
@@ -29773,12 +28793,9 @@
       <c r="Z335" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA335" s="6">
-        <f t="shared" si="5"/>
-        <v>155.13086300000003</v>
-      </c>
-    </row>
-    <row r="336" spans="1:27" ht="13.5">
+      <c r="AA335" s="6"/>
+    </row>
+    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>362</v>
       </c>
@@ -29857,12 +28874,9 @@
       <c r="Z336" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA336" s="6">
-        <f t="shared" si="5"/>
-        <v>155.76363899999998</v>
-      </c>
-    </row>
-    <row r="337" spans="1:27" ht="13.5">
+      <c r="AA336" s="6"/>
+    </row>
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>363</v>
       </c>
@@ -29941,12 +28955,9 @@
       <c r="Z337" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA337" s="6">
-        <f t="shared" si="5"/>
-        <v>155.65633433333343</v>
-      </c>
-    </row>
-    <row r="338" spans="1:27" ht="13.5">
+      <c r="AA337" s="6"/>
+    </row>
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>364</v>
       </c>
@@ -30025,12 +29036,9 @@
       <c r="Z338" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA338" s="6">
-        <f t="shared" si="5"/>
-        <v>173.5718149999999</v>
-      </c>
-    </row>
-    <row r="339" spans="1:27" ht="13.5">
+      <c r="AA338" s="6"/>
+    </row>
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>365</v>
       </c>
@@ -30109,12 +29117,9 @@
       <c r="Z339" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA339" s="6">
-        <f t="shared" si="5"/>
-        <v>191.05650333333335</v>
-      </c>
-    </row>
-    <row r="340" spans="1:27" ht="13.5">
+      <c r="AA339" s="6"/>
+    </row>
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>366</v>
       </c>
@@ -30193,12 +29198,9 @@
       <c r="Z340" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA340" s="6">
-        <f t="shared" si="5"/>
-        <v>195.52418099999991</v>
-      </c>
-    </row>
-    <row r="341" spans="1:27" ht="13.5">
+      <c r="AA340" s="6"/>
+    </row>
+    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>367</v>
       </c>
@@ -30277,12 +29279,9 @@
       <c r="Z341" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA341" s="6">
-        <f t="shared" si="5"/>
-        <v>199.12985766666665</v>
-      </c>
-    </row>
-    <row r="342" spans="1:27" ht="13.5">
+      <c r="AA341" s="6"/>
+    </row>
+    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>368</v>
       </c>
@@ -30361,12 +29360,9 @@
       <c r="Z342" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA342" s="6">
-        <f t="shared" si="5"/>
-        <v>220.26721300000005</v>
-      </c>
-    </row>
-    <row r="343" spans="1:27" ht="13.5">
+      <c r="AA342" s="6"/>
+    </row>
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>369</v>
       </c>
@@ -30445,12 +29441,9 @@
       <c r="Z343" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA343" s="6">
-        <f t="shared" si="5"/>
-        <v>221.17724233333328</v>
-      </c>
-    </row>
-    <row r="344" spans="1:27" ht="13.5">
+      <c r="AA343" s="6"/>
+    </row>
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>370</v>
       </c>
@@ -30529,12 +29522,9 @@
       <c r="Z344" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA344" s="6">
-        <f t="shared" si="5"/>
-        <v>202.77248100000006</v>
-      </c>
-    </row>
-    <row r="345" spans="1:27" ht="13.5">
+      <c r="AA344" s="6"/>
+    </row>
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>371</v>
       </c>
@@ -30613,12 +29603,9 @@
       <c r="Z345" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA345" s="6">
-        <f t="shared" si="5"/>
-        <v>209.036653</v>
-      </c>
-    </row>
-    <row r="346" spans="1:27" ht="13.5">
+      <c r="AA345" s="6"/>
+    </row>
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>372</v>
       </c>
@@ -30697,12 +29684,9 @@
       <c r="Z346" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA346" s="6">
-        <f t="shared" si="5"/>
-        <v>199.31409800000003</v>
-      </c>
-    </row>
-    <row r="347" spans="1:27" ht="13.5">
+      <c r="AA346" s="6"/>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>373</v>
       </c>
@@ -30781,12 +29765,9 @@
       <c r="Z347" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA347" s="6">
-        <f t="shared" si="5"/>
-        <v>208.50018099999991</v>
-      </c>
-    </row>
-    <row r="348" spans="1:27" ht="13.5">
+      <c r="AA347" s="6"/>
+    </row>
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>374</v>
       </c>
@@ -30865,12 +29846,9 @@
       <c r="Z348" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA348" s="6">
-        <f t="shared" si="5"/>
-        <v>177.19208333333327</v>
-      </c>
-    </row>
-    <row r="349" spans="1:27" ht="13.5">
+      <c r="AA348" s="6"/>
+    </row>
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>375</v>
       </c>
@@ -30949,12 +29927,9 @@
       <c r="Z349" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA349" s="6">
-        <f t="shared" si="5"/>
-        <v>180.69230033333341</v>
-      </c>
-    </row>
-    <row r="350" spans="1:27" ht="13.5">
+      <c r="AA349" s="6"/>
+    </row>
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>376</v>
       </c>
@@ -31033,12 +30008,9 @@
       <c r="Z350" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA350" s="6">
-        <f t="shared" si="5"/>
-        <v>189.01694466666663</v>
-      </c>
-    </row>
-    <row r="351" spans="1:27" ht="13.5">
+      <c r="AA350" s="6"/>
+    </row>
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>377</v>
       </c>
@@ -31117,12 +30089,9 @@
       <c r="Z351" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA351" s="6">
-        <f t="shared" si="5"/>
-        <v>152.59006766666667</v>
-      </c>
-    </row>
-    <row r="352" spans="1:27" ht="13.5">
+      <c r="AA351" s="6"/>
+    </row>
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>378</v>
       </c>
@@ -31201,12 +30170,9 @@
       <c r="Z352" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA352" s="6">
-        <f t="shared" si="5"/>
-        <v>177.76952466666663</v>
-      </c>
-    </row>
-    <row r="353" spans="1:27" ht="13.5">
+      <c r="AA352" s="6"/>
+    </row>
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>379</v>
       </c>
@@ -31285,12 +30251,9 @@
       <c r="Z353" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA353" s="6">
-        <f t="shared" si="5"/>
-        <v>160.0125633333333</v>
-      </c>
-    </row>
-    <row r="354" spans="1:27" ht="13.5">
+      <c r="AA353" s="6"/>
+    </row>
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>380</v>
       </c>
@@ -31369,12 +30332,9 @@
       <c r="Z354" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA354" s="6">
-        <f t="shared" si="5"/>
-        <v>170.30077900000003</v>
-      </c>
-    </row>
-    <row r="355" spans="1:27" ht="13.5">
+      <c r="AA354" s="6"/>
+    </row>
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>381</v>
       </c>
@@ -31453,12 +30413,9 @@
       <c r="Z355" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA355" s="6">
-        <f t="shared" si="5"/>
-        <v>162.81030433333333</v>
-      </c>
-    </row>
-    <row r="356" spans="1:27" ht="13.5">
+      <c r="AA355" s="6"/>
+    </row>
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>382</v>
       </c>
@@ -31537,12 +30494,9 @@
       <c r="Z356" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA356" s="6">
-        <f t="shared" si="5"/>
-        <v>155.50878066666669</v>
-      </c>
-    </row>
-    <row r="357" spans="1:27" ht="13.5">
+      <c r="AA356" s="6"/>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>383</v>
       </c>
@@ -31621,12 +30575,9 @@
       <c r="Z357" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA357" s="6">
-        <f t="shared" si="5"/>
-        <v>110.626795</v>
-      </c>
-    </row>
-    <row r="358" spans="1:27" ht="13.5">
+      <c r="AA357" s="6"/>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>384</v>
       </c>
@@ -31705,12 +30656,9 @@
       <c r="Z358" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA358" s="6">
-        <f t="shared" si="5"/>
-        <v>181.9196553333334</v>
-      </c>
-    </row>
-    <row r="359" spans="1:27" ht="13.5">
+      <c r="AA358" s="6"/>
+    </row>
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>385</v>
       </c>
@@ -31789,12 +30737,9 @@
       <c r="Z359" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA359" s="6">
-        <f t="shared" si="5"/>
-        <v>194.86233166666673</v>
-      </c>
-    </row>
-    <row r="360" spans="1:27" ht="13.5">
+      <c r="AA359" s="6"/>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>386</v>
       </c>
@@ -31873,12 +30818,9 @@
       <c r="Z360" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA360" s="6">
-        <f t="shared" si="5"/>
-        <v>161.50995766666662</v>
-      </c>
-    </row>
-    <row r="361" spans="1:27" ht="13.5">
+      <c r="AA360" s="6"/>
+    </row>
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>387</v>
       </c>
@@ -31957,12 +30899,9 @@
       <c r="Z361" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA361" s="6">
-        <f t="shared" si="5"/>
-        <v>161.14318566666668</v>
-      </c>
-    </row>
-    <row r="362" spans="1:27" ht="13.5">
+      <c r="AA361" s="6"/>
+    </row>
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>388</v>
       </c>
@@ -32041,12 +30980,9 @@
       <c r="Z362" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA362" s="6">
-        <f t="shared" si="5"/>
-        <v>142.72206400000002</v>
-      </c>
-    </row>
-    <row r="363" spans="1:27" ht="13.5">
+      <c r="AA362" s="6"/>
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>389</v>
       </c>
@@ -32125,12 +31061,9 @@
       <c r="Z363" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA363" s="6">
-        <f t="shared" si="5"/>
-        <v>140.77445633333329</v>
-      </c>
-    </row>
-    <row r="364" spans="1:27" ht="13.5">
+      <c r="AA363" s="6"/>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>390</v>
       </c>
@@ -32209,12 +31142,9 @@
       <c r="Z364" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA364" s="6">
-        <f t="shared" si="5"/>
-        <v>148.45901500000002</v>
-      </c>
-    </row>
-    <row r="365" spans="1:27" ht="13.5">
+      <c r="AA364" s="6"/>
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>391</v>
       </c>
@@ -32293,12 +31223,9 @@
       <c r="Z365" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA365" s="6">
-        <f t="shared" si="5"/>
-        <v>155.96261866666663</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" ht="13.5">
+      <c r="AA365" s="6"/>
+    </row>
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>392</v>
       </c>
@@ -32377,12 +31304,9 @@
       <c r="Z366" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA366" s="6">
-        <f t="shared" si="5"/>
-        <v>166.52404266666665</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" ht="13.5">
+      <c r="AA366" s="6"/>
+    </row>
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>393</v>
       </c>
@@ -32461,12 +31385,9 @@
       <c r="Z367" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA367" s="6">
-        <f t="shared" si="5"/>
-        <v>159.13936599999994</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" ht="13.5">
+      <c r="AA367" s="6"/>
+    </row>
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>394</v>
       </c>
@@ -32545,205 +31466,61 @@
       <c r="Z368" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA368" s="6">
-        <f t="shared" si="5"/>
-        <v>156.80717133333334</v>
-      </c>
-    </row>
-    <row r="369" spans="2:27" ht="409.6" hidden="1" customHeight="1"/>
-    <row r="370" spans="2:27" ht="12.95" customHeight="1">
-      <c r="AA370" s="7">
-        <f>AVERAGE(AA4:AA368)</f>
-        <v>224.98384610958919</v>
-      </c>
-    </row>
-    <row r="371" spans="2:27">
-      <c r="B371" s="8">
-        <f>AVERAGE(B5:B368)</f>
-        <v>196.0580495714284</v>
-      </c>
-      <c r="C371" s="8">
-        <f t="shared" ref="C371:X371" si="6">AVERAGE(C5:C368)</f>
-        <v>189.36621165934051</v>
-      </c>
-      <c r="D371" s="8">
-        <f t="shared" si="6"/>
-        <v>181.65156056043938</v>
-      </c>
-      <c r="E371" s="8">
-        <f t="shared" si="6"/>
-        <v>180.89967594505484</v>
-      </c>
-      <c r="F371" s="8">
-        <f t="shared" si="6"/>
-        <v>185.85384078021968</v>
-      </c>
-      <c r="G371" s="8">
-        <f t="shared" si="6"/>
-        <v>198.73560451648333</v>
-      </c>
-      <c r="H371" s="8">
-        <f t="shared" si="6"/>
-        <v>204.46932979120871</v>
-      </c>
-      <c r="I371" s="8">
-        <f t="shared" si="6"/>
-        <v>216.54833528571407</v>
-      </c>
-      <c r="J371" s="8">
-        <f t="shared" si="6"/>
-        <v>228.07654957142859</v>
-      </c>
-      <c r="K371" s="8">
-        <f t="shared" si="6"/>
-        <v>234.34703583516483</v>
-      </c>
-      <c r="L371" s="8">
-        <f t="shared" si="6"/>
-        <v>242.55637924175812</v>
-      </c>
-      <c r="M371" s="8">
-        <f t="shared" si="6"/>
-        <v>249.19490946153826</v>
-      </c>
-      <c r="N371" s="8">
-        <f t="shared" si="6"/>
-        <v>242.74913473626361</v>
-      </c>
-      <c r="O371" s="8">
-        <f t="shared" si="6"/>
-        <v>241.92797814285706</v>
-      </c>
-      <c r="P371" s="8">
-        <f t="shared" si="6"/>
-        <v>244.12882154945041</v>
-      </c>
-      <c r="Q371" s="8">
-        <f t="shared" si="6"/>
-        <v>242.265717153846</v>
-      </c>
-      <c r="R371" s="8">
-        <f t="shared" si="6"/>
-        <v>237.92186550549437</v>
-      </c>
-      <c r="S371" s="8">
-        <f t="shared" si="6"/>
-        <v>234.4847446263735</v>
-      </c>
-      <c r="T371" s="8">
-        <f t="shared" si="6"/>
-        <v>256.24748638461523</v>
-      </c>
-      <c r="U371" s="8">
-        <f t="shared" si="6"/>
-        <v>266.7122089120877</v>
-      </c>
-      <c r="V371" s="8">
-        <f t="shared" si="6"/>
-        <v>253.7104946263735</v>
-      </c>
-      <c r="W371" s="8">
-        <f t="shared" si="6"/>
-        <v>240.12361001098884</v>
-      </c>
-      <c r="X371" s="8">
-        <f t="shared" si="6"/>
-        <v>224.41570616483509</v>
-      </c>
-    </row>
-    <row r="372" spans="2:27">
-      <c r="B372" s="9">
-        <f>PERCENTILE(B4:B368,0.5)</f>
-        <v>161.43040400000001</v>
-      </c>
-      <c r="C372" s="9">
-        <f t="shared" ref="C372:X372" si="7">PERCENTILE(C4:C368,0.5)</f>
-        <v>158.84137899999999</v>
-      </c>
-      <c r="D372" s="9">
-        <f t="shared" si="7"/>
-        <v>154.117332</v>
-      </c>
-      <c r="E372" s="9">
-        <f t="shared" si="7"/>
-        <v>153.759119</v>
-      </c>
-      <c r="F372" s="9">
-        <f t="shared" si="7"/>
-        <v>156.44950399999999</v>
-      </c>
-      <c r="G372" s="9">
-        <f t="shared" si="7"/>
-        <v>161.123818</v>
-      </c>
-      <c r="H372" s="9">
-        <f t="shared" si="7"/>
-        <v>164.74851799999999</v>
-      </c>
-      <c r="I372" s="9">
-        <f t="shared" si="7"/>
-        <v>173.54227299999999</v>
-      </c>
-      <c r="J372" s="9">
-        <f t="shared" si="7"/>
-        <v>183.69449</v>
-      </c>
-      <c r="K372" s="9">
-        <f t="shared" si="7"/>
-        <v>188.08252200000001</v>
-      </c>
-      <c r="L372" s="9">
-        <f t="shared" si="7"/>
-        <v>191.728163</v>
-      </c>
-      <c r="M372" s="9">
-        <f t="shared" si="7"/>
-        <v>194.07022799999999</v>
-      </c>
-      <c r="N372" s="9">
-        <f t="shared" si="7"/>
-        <v>192.60297800000001</v>
-      </c>
-      <c r="O372" s="9">
-        <f t="shared" si="7"/>
-        <v>191.469796</v>
-      </c>
-      <c r="P372" s="9">
-        <f t="shared" si="7"/>
-        <v>192.74943099999999</v>
-      </c>
-      <c r="Q372" s="9">
-        <f t="shared" si="7"/>
-        <v>191.469796</v>
-      </c>
-      <c r="R372" s="9">
-        <f t="shared" si="7"/>
-        <v>190.048058</v>
-      </c>
-      <c r="S372" s="9">
-        <f t="shared" si="7"/>
-        <v>188.60140000000001</v>
-      </c>
-      <c r="T372" s="9">
-        <f>PERCENTILE(T4:T368,0.5)</f>
-        <v>202.74158700000001</v>
-      </c>
-      <c r="U372" s="9">
-        <f t="shared" si="7"/>
-        <v>214.07287500000001</v>
-      </c>
-      <c r="V372" s="9">
-        <f t="shared" si="7"/>
-        <v>202.29379599999999</v>
-      </c>
-      <c r="W372" s="9">
-        <f t="shared" si="7"/>
-        <v>192.60297800000001</v>
-      </c>
-      <c r="X372" s="9">
-        <f t="shared" si="7"/>
-        <v>178.83735200000001</v>
-      </c>
+      <c r="AA368" s="6"/>
+    </row>
+    <row r="369" spans="2:27" ht="409.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" spans="2:27" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA370" s="7"/>
+    </row>
+    <row r="371" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B371" s="8"/>
+      <c r="C371" s="8"/>
+      <c r="D371" s="8"/>
+      <c r="E371" s="8"/>
+      <c r="F371" s="8"/>
+      <c r="G371" s="8"/>
+      <c r="H371" s="8"/>
+      <c r="I371" s="8"/>
+      <c r="J371" s="8"/>
+      <c r="K371" s="8"/>
+      <c r="L371" s="8"/>
+      <c r="M371" s="8"/>
+      <c r="N371" s="8"/>
+      <c r="O371" s="8"/>
+      <c r="P371" s="8"/>
+      <c r="Q371" s="8"/>
+      <c r="R371" s="8"/>
+      <c r="S371" s="8"/>
+      <c r="T371" s="8"/>
+      <c r="U371" s="8"/>
+      <c r="V371" s="8"/>
+      <c r="W371" s="8"/>
+      <c r="X371" s="8"/>
+    </row>
+    <row r="372" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B372" s="9"/>
+      <c r="C372" s="9"/>
+      <c r="D372" s="9"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="9"/>
+      <c r="G372" s="9"/>
+      <c r="H372" s="9"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="9"/>
+      <c r="K372" s="9"/>
+      <c r="L372" s="9"/>
+      <c r="M372" s="9"/>
+      <c r="N372" s="9"/>
+      <c r="O372" s="9"/>
+      <c r="P372" s="9"/>
+      <c r="Q372" s="9"/>
+      <c r="R372" s="9"/>
+      <c r="S372" s="9"/>
+      <c r="T372" s="9"/>
+      <c r="U372" s="9"/>
+      <c r="V372" s="9"/>
+      <c r="W372" s="9"/>
+      <c r="X372" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -32759,6 +31536,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002BA42287BCA96E4CBE0B0D4D30D58F77" ma:contentTypeVersion="1" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="430dbe27c8d3fdb5344da83a654157b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e48ec5c2-614c-49e6-a81a-ca54d4b077b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="acf7ea99d1f8bcbadb4a28bdb40ccc60" ns2:_="">
     <xsd:import namespace="e48ec5c2-614c-49e6-a81a-ca54d4b077b0"/>
@@ -32898,29 +31690,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81FE0CE5-65CD-43F8-9505-F1E56A6C0812}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85C1DD30-9D9D-4006-97AC-F64D0A088E59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE01FD50-C51B-49BB-94C1-539785AD6ED1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE01FD50-C51B-49BB-94C1-539785AD6ED1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85C1DD30-9D9D-4006-97AC-F64D0A088E59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81FE0CE5-65CD-43F8-9505-F1E56A6C0812}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e48ec5c2-614c-49e6-a81a-ca54d4b077b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>